--- a/Recent 14Days Alert Data🔥/xlsx/data-gov-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/data-gov-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="184">
   <si>
     <t>no</t>
   </si>
@@ -229,12 +229,27 @@
     <t>นครสวรรค์</t>
   </si>
   <si>
+    <t>สงขลา</t>
+  </si>
+  <si>
+    <t>ราชบุรี</t>
+  </si>
+  <si>
+    <t>เลย</t>
+  </si>
+  <si>
+    <t>อุบลราชธานี</t>
+  </si>
+  <si>
     <t>กรุงเทพมหานคร</t>
   </si>
   <si>
     <t>ระยอง</t>
   </si>
   <si>
+    <t>พม่า</t>
+  </si>
+  <si>
     <t>ดินแดง</t>
   </si>
   <si>
@@ -464,6 +479,54 @@
   </si>
   <si>
     <t>บางบัวทอง</t>
+  </si>
+  <si>
+    <t>หาดใหญ่</t>
+  </si>
+  <si>
+    <t>กะทู้</t>
+  </si>
+  <si>
+    <t>อ่าวนาง</t>
+  </si>
+  <si>
+    <t>คลองท่อม</t>
+  </si>
+  <si>
+    <t>ปากท่อ</t>
+  </si>
+  <si>
+    <t>ท่าขี้เหล็ก</t>
+  </si>
+  <si>
+    <t>หนองเสือ</t>
+  </si>
+  <si>
+    <t>ด่านซ้าย</t>
+  </si>
+  <si>
+    <t>พระโขนง</t>
+  </si>
+  <si>
+    <t>ดุสิต</t>
+  </si>
+  <si>
+    <t>หนองบัวแดง</t>
+  </si>
+  <si>
+    <t>ทุ่งครุ</t>
+  </si>
+  <si>
+    <t>พระประเเดง</t>
+  </si>
+  <si>
+    <t>ทุ่งครุ</t>
+  </si>
+  <si>
+    <t>อัมพวา</t>
+  </si>
+  <si>
+    <t>วารินชำราบ</t>
   </si>
   <si>
     <t>ผู้ที่เดินทางมาจากต่างประเทศ และเข้า ASQ/ALQ</t>
@@ -864,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J364"/>
+  <dimension ref="A1:J410"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -925,13 +988,13 @@
         <v>44178</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -960,10 +1023,10 @@
         <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J3" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -989,13 +1052,13 @@
         <v>44178</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1021,13 +1084,13 @@
         <v>44178</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1053,13 +1116,13 @@
         <v>44178</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1085,13 +1148,13 @@
         <v>44178</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1120,10 +1183,10 @@
         <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J8" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1152,10 +1215,10 @@
         <v>40</v>
       </c>
       <c r="I9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J9" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1184,7 +1247,7 @@
         <v>43</v>
       </c>
       <c r="J10" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1213,7 +1276,7 @@
         <v>43</v>
       </c>
       <c r="J11" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1242,7 +1305,7 @@
         <v>43</v>
       </c>
       <c r="J12" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1271,7 +1334,7 @@
         <v>43</v>
       </c>
       <c r="J13" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1300,7 +1363,7 @@
         <v>43</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1329,10 +1392,10 @@
         <v>43</v>
       </c>
       <c r="I15" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J15" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1361,10 +1424,10 @@
         <v>43</v>
       </c>
       <c r="I16" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J16" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1393,10 +1456,10 @@
         <v>43</v>
       </c>
       <c r="I17" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J17" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1425,10 +1488,10 @@
         <v>43</v>
       </c>
       <c r="I18" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J18" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1454,13 +1517,13 @@
         <v>44179</v>
       </c>
       <c r="H19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I19" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J19" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1486,13 +1549,13 @@
         <v>44179</v>
       </c>
       <c r="H20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J20" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1518,13 +1581,13 @@
         <v>44179</v>
       </c>
       <c r="H21" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I21" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J21" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1550,13 +1613,13 @@
         <v>44179</v>
       </c>
       <c r="H22" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J22" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1585,10 +1648,10 @@
         <v>40</v>
       </c>
       <c r="I23" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J23" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1617,10 +1680,10 @@
         <v>41</v>
       </c>
       <c r="I24" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1649,10 +1712,10 @@
         <v>41</v>
       </c>
       <c r="I25" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J25" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1681,10 +1744,10 @@
         <v>41</v>
       </c>
       <c r="I26" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1713,10 +1776,10 @@
         <v>41</v>
       </c>
       <c r="I27" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1745,10 +1808,10 @@
         <v>41</v>
       </c>
       <c r="I28" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1777,10 +1840,10 @@
         <v>40</v>
       </c>
       <c r="I29" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J29" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1809,10 +1872,10 @@
         <v>40</v>
       </c>
       <c r="I30" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J30" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1841,10 +1904,10 @@
         <v>41</v>
       </c>
       <c r="I31" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1873,10 +1936,10 @@
         <v>41</v>
       </c>
       <c r="I32" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J32" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1905,10 +1968,10 @@
         <v>41</v>
       </c>
       <c r="I33" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J33" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1937,10 +2000,10 @@
         <v>41</v>
       </c>
       <c r="I34" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J34" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1969,10 +2032,10 @@
         <v>41</v>
       </c>
       <c r="I35" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J35" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2001,10 +2064,10 @@
         <v>41</v>
       </c>
       <c r="I36" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J36" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2033,10 +2096,10 @@
         <v>41</v>
       </c>
       <c r="I37" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J37" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2065,10 +2128,10 @@
         <v>41</v>
       </c>
       <c r="I38" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2097,10 +2160,10 @@
         <v>43</v>
       </c>
       <c r="I39" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J39" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2129,10 +2192,10 @@
         <v>43</v>
       </c>
       <c r="I40" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J40" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2161,10 +2224,10 @@
         <v>43</v>
       </c>
       <c r="I41" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J41" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2193,10 +2256,10 @@
         <v>43</v>
       </c>
       <c r="I42" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J42" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2225,10 +2288,10 @@
         <v>43</v>
       </c>
       <c r="I43" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J43" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2257,10 +2320,10 @@
         <v>43</v>
       </c>
       <c r="I44" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J44" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2289,10 +2352,10 @@
         <v>40</v>
       </c>
       <c r="I45" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J45" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2318,10 +2381,10 @@
         <v>44179</v>
       </c>
       <c r="H46" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J46" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2347,13 +2410,13 @@
         <v>44180</v>
       </c>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I47" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J47" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2379,13 +2442,13 @@
         <v>44180</v>
       </c>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I48" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J48" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2411,13 +2474,13 @@
         <v>44545</v>
       </c>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I49" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J49" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2443,13 +2506,13 @@
         <v>44180</v>
       </c>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I50" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J50" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2475,13 +2538,13 @@
         <v>44180</v>
       </c>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I51" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J51" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2507,13 +2570,13 @@
         <v>44180</v>
       </c>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I52" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J52" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2539,13 +2602,13 @@
         <v>44180</v>
       </c>
       <c r="H53" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I53" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J53" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2571,13 +2634,13 @@
         <v>44180</v>
       </c>
       <c r="H54" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I54" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J54" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2606,10 +2669,10 @@
         <v>41</v>
       </c>
       <c r="I55" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J55" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2635,13 +2698,13 @@
         <v>44181</v>
       </c>
       <c r="H56" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I56" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J56" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2667,13 +2730,13 @@
         <v>44181</v>
       </c>
       <c r="H57" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I57" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J57" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2702,10 +2765,10 @@
         <v>41</v>
       </c>
       <c r="I58" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J58" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2731,13 +2794,13 @@
         <v>44181</v>
       </c>
       <c r="H59" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I59" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J59" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2763,13 +2826,13 @@
         <v>44181</v>
       </c>
       <c r="H60" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I60" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J60" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2795,13 +2858,13 @@
         <v>44181</v>
       </c>
       <c r="H61" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I61" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J61" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2830,10 +2893,10 @@
         <v>41</v>
       </c>
       <c r="I62" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J62" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2859,13 +2922,13 @@
         <v>44181</v>
       </c>
       <c r="H63" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I63" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J63" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2894,10 +2957,10 @@
         <v>41</v>
       </c>
       <c r="I64" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J64" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2926,10 +2989,10 @@
         <v>43</v>
       </c>
       <c r="I65" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J65" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2958,10 +3021,10 @@
         <v>43</v>
       </c>
       <c r="I66" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J66" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2990,10 +3053,10 @@
         <v>43</v>
       </c>
       <c r="I67" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J67" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3019,13 +3082,13 @@
         <v>44181</v>
       </c>
       <c r="H68" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I68" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J68" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -3051,13 +3114,13 @@
         <v>44181</v>
       </c>
       <c r="H69" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I69" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J69" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -3083,13 +3146,13 @@
         <v>44182</v>
       </c>
       <c r="H70" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I70" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J70" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3115,13 +3178,13 @@
         <v>44182</v>
       </c>
       <c r="H71" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I71" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J71" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -3150,10 +3213,10 @@
         <v>41</v>
       </c>
       <c r="I72" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J72" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -3179,13 +3242,13 @@
         <v>44182</v>
       </c>
       <c r="H73" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I73" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J73" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -3211,13 +3274,13 @@
         <v>44182</v>
       </c>
       <c r="H74" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I74" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J74" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -3243,13 +3306,13 @@
         <v>44182</v>
       </c>
       <c r="H75" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I75" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J75" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -3275,13 +3338,13 @@
         <v>44182</v>
       </c>
       <c r="H76" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I76" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J76" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3307,13 +3370,13 @@
         <v>44182</v>
       </c>
       <c r="H77" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I77" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J77" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3339,13 +3402,13 @@
         <v>44182</v>
       </c>
       <c r="H78" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I78" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J78" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3374,10 +3437,10 @@
         <v>41</v>
       </c>
       <c r="I79" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J79" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3403,13 +3466,13 @@
         <v>44182</v>
       </c>
       <c r="H80" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I80" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J80" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -3438,10 +3501,10 @@
         <v>41</v>
       </c>
       <c r="I81" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J81" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -3470,10 +3533,10 @@
         <v>41</v>
       </c>
       <c r="I82" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J82" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3502,10 +3565,10 @@
         <v>41</v>
       </c>
       <c r="I83" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J83" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3534,10 +3597,10 @@
         <v>41</v>
       </c>
       <c r="I84" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J84" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3566,10 +3629,10 @@
         <v>41</v>
       </c>
       <c r="I85" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J85" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3598,10 +3661,10 @@
         <v>41</v>
       </c>
       <c r="I86" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J86" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3627,13 +3690,13 @@
         <v>44182</v>
       </c>
       <c r="H87" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I87" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J87" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3659,13 +3722,13 @@
         <v>44182</v>
       </c>
       <c r="H88" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I88" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J88" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3694,10 +3757,10 @@
         <v>40</v>
       </c>
       <c r="I89" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J89" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3726,10 +3789,10 @@
         <v>44</v>
       </c>
       <c r="I90" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J90" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3758,10 +3821,10 @@
         <v>43</v>
       </c>
       <c r="I91" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J91" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3790,10 +3853,10 @@
         <v>43</v>
       </c>
       <c r="I92" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J92" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -3822,10 +3885,10 @@
         <v>43</v>
       </c>
       <c r="I93" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J93" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3854,10 +3917,10 @@
         <v>43</v>
       </c>
       <c r="I94" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J94" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -3883,13 +3946,13 @@
         <v>44183</v>
       </c>
       <c r="H95" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I95" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J95" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3915,13 +3978,13 @@
         <v>44183</v>
       </c>
       <c r="H96" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I96" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J96" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -3947,13 +4010,13 @@
         <v>44183</v>
       </c>
       <c r="H97" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I97" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J97" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3979,13 +4042,13 @@
         <v>44183</v>
       </c>
       <c r="H98" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I98" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J98" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -4014,10 +4077,10 @@
         <v>41</v>
       </c>
       <c r="I99" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="J99" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -4046,10 +4109,10 @@
         <v>41</v>
       </c>
       <c r="I100" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J100" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -4078,10 +4141,10 @@
         <v>41</v>
       </c>
       <c r="I101" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J101" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -4110,10 +4173,10 @@
         <v>41</v>
       </c>
       <c r="I102" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J102" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -4142,10 +4205,10 @@
         <v>41</v>
       </c>
       <c r="I103" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J103" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -4171,13 +4234,13 @@
         <v>44183</v>
       </c>
       <c r="H104" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I104" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J104" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -4206,10 +4269,10 @@
         <v>45</v>
       </c>
       <c r="I105" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J105" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -4238,10 +4301,10 @@
         <v>40</v>
       </c>
       <c r="I106" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="J106" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -4267,13 +4330,13 @@
         <v>44184</v>
       </c>
       <c r="H107" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I107" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J107" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -4299,13 +4362,13 @@
         <v>44184</v>
       </c>
       <c r="H108" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I108" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J108" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -4334,10 +4397,10 @@
         <v>44</v>
       </c>
       <c r="I109" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J109" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -4366,10 +4429,10 @@
         <v>41</v>
       </c>
       <c r="I110" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J110" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -4395,13 +4458,13 @@
         <v>44184</v>
       </c>
       <c r="H111" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I111" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J111" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -4427,13 +4490,13 @@
         <v>44184</v>
       </c>
       <c r="H112" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I112" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J112" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -4459,13 +4522,13 @@
         <v>44184</v>
       </c>
       <c r="H113" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I113" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J113" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -4494,10 +4557,10 @@
         <v>44</v>
       </c>
       <c r="I114" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J114" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -4523,13 +4586,13 @@
         <v>44184</v>
       </c>
       <c r="H115" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I115" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J115" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -4555,13 +4618,13 @@
         <v>44184</v>
       </c>
       <c r="H116" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I116" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J116" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -4590,10 +4653,10 @@
         <v>41</v>
       </c>
       <c r="I117" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J117" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -4622,10 +4685,10 @@
         <v>41</v>
       </c>
       <c r="I118" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J118" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -4654,10 +4717,10 @@
         <v>44</v>
       </c>
       <c r="I119" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J119" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -4686,10 +4749,10 @@
         <v>44</v>
       </c>
       <c r="I120" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J120" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -4718,10 +4781,10 @@
         <v>41</v>
       </c>
       <c r="I121" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J121" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -4750,10 +4813,10 @@
         <v>41</v>
       </c>
       <c r="I122" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J122" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -4779,13 +4842,13 @@
         <v>44184</v>
       </c>
       <c r="H123" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I123" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J123" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -4814,10 +4877,10 @@
         <v>40</v>
       </c>
       <c r="I124" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="J124" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -4843,13 +4906,13 @@
         <v>44184</v>
       </c>
       <c r="H125" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I125" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J125" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -4875,13 +4938,13 @@
         <v>44184</v>
       </c>
       <c r="H126" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I126" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J126" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -4907,13 +4970,13 @@
         <v>44184</v>
       </c>
       <c r="H127" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I127" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J127" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -4942,10 +5005,10 @@
         <v>45</v>
       </c>
       <c r="I128" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J128" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -4974,10 +5037,10 @@
         <v>45</v>
       </c>
       <c r="I129" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J129" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -5006,10 +5069,10 @@
         <v>45</v>
       </c>
       <c r="I130" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J130" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -5038,10 +5101,10 @@
         <v>45</v>
       </c>
       <c r="I131" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J131" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -5070,10 +5133,10 @@
         <v>45</v>
       </c>
       <c r="I132" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J132" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -5102,10 +5165,10 @@
         <v>45</v>
       </c>
       <c r="I133" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J133" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -5134,10 +5197,10 @@
         <v>45</v>
       </c>
       <c r="I134" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J134" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -5166,10 +5229,10 @@
         <v>45</v>
       </c>
       <c r="I135" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J135" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -5198,10 +5261,10 @@
         <v>45</v>
       </c>
       <c r="I136" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J136" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -5230,10 +5293,10 @@
         <v>45</v>
       </c>
       <c r="I137" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J137" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -5262,10 +5325,10 @@
         <v>45</v>
       </c>
       <c r="I138" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J138" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -5294,10 +5357,10 @@
         <v>45</v>
       </c>
       <c r="I139" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J139" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -5326,10 +5389,10 @@
         <v>45</v>
       </c>
       <c r="I140" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J140" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -5358,10 +5421,10 @@
         <v>45</v>
       </c>
       <c r="I141" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J141" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -5390,10 +5453,10 @@
         <v>45</v>
       </c>
       <c r="I142" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J142" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -5422,10 +5485,10 @@
         <v>45</v>
       </c>
       <c r="I143" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J143" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -5454,10 +5517,10 @@
         <v>45</v>
       </c>
       <c r="I144" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J144" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -5486,10 +5549,10 @@
         <v>45</v>
       </c>
       <c r="I145" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J145" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -5518,10 +5581,10 @@
         <v>45</v>
       </c>
       <c r="I146" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J146" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -5550,10 +5613,10 @@
         <v>41</v>
       </c>
       <c r="I147" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J147" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -5582,10 +5645,10 @@
         <v>41</v>
       </c>
       <c r="I148" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J148" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -5614,10 +5677,10 @@
         <v>43</v>
       </c>
       <c r="I149" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J149" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -5646,10 +5709,10 @@
         <v>43</v>
       </c>
       <c r="I150" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J150" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -5675,13 +5738,13 @@
         <v>44185</v>
       </c>
       <c r="H151" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I151" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J151" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -5707,13 +5770,13 @@
         <v>44185</v>
       </c>
       <c r="H152" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I152" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J152" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -5739,13 +5802,13 @@
         <v>44185</v>
       </c>
       <c r="H153" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I153" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="J153" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -5771,13 +5834,13 @@
         <v>44185</v>
       </c>
       <c r="H154" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I154" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J154" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -5803,13 +5866,13 @@
         <v>44185</v>
       </c>
       <c r="H155" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I155" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J155" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -5838,10 +5901,10 @@
         <v>41</v>
       </c>
       <c r="I156" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J156" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -5870,10 +5933,10 @@
         <v>41</v>
       </c>
       <c r="I157" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J157" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -5902,10 +5965,10 @@
         <v>40</v>
       </c>
       <c r="I158" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J158" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -5934,10 +5997,10 @@
         <v>40</v>
       </c>
       <c r="I159" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J159" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -5966,10 +6029,10 @@
         <v>41</v>
       </c>
       <c r="I160" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J160" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -5998,10 +6061,10 @@
         <v>41</v>
       </c>
       <c r="I161" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J161" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -6030,10 +6093,10 @@
         <v>41</v>
       </c>
       <c r="I162" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J162" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -6062,10 +6125,10 @@
         <v>41</v>
       </c>
       <c r="I163" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J163" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -6094,10 +6157,10 @@
         <v>41</v>
       </c>
       <c r="I164" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J164" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -6126,10 +6189,10 @@
         <v>41</v>
       </c>
       <c r="I165" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J165" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -6158,10 +6221,10 @@
         <v>41</v>
       </c>
       <c r="I166" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J166" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -6190,10 +6253,10 @@
         <v>41</v>
       </c>
       <c r="I167" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J167" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -6222,10 +6285,10 @@
         <v>41</v>
       </c>
       <c r="I168" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J168" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -6254,10 +6317,10 @@
         <v>41</v>
       </c>
       <c r="I169" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J169" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -6286,10 +6349,10 @@
         <v>41</v>
       </c>
       <c r="I170" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J170" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -6318,10 +6381,10 @@
         <v>41</v>
       </c>
       <c r="I171" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J171" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -6350,10 +6413,10 @@
         <v>41</v>
       </c>
       <c r="I172" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J172" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -6382,10 +6445,10 @@
         <v>41</v>
       </c>
       <c r="I173" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J173" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -6414,10 +6477,10 @@
         <v>41</v>
       </c>
       <c r="I174" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J174" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -6446,10 +6509,10 @@
         <v>41</v>
       </c>
       <c r="I175" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J175" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -6478,10 +6541,10 @@
         <v>41</v>
       </c>
       <c r="I176" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J176" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -6510,10 +6573,10 @@
         <v>41</v>
       </c>
       <c r="I177" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J177" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -6542,10 +6605,10 @@
         <v>41</v>
       </c>
       <c r="I178" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J178" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -6574,10 +6637,10 @@
         <v>41</v>
       </c>
       <c r="I179" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J179" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -6606,10 +6669,10 @@
         <v>41</v>
       </c>
       <c r="I180" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J180" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -6638,10 +6701,10 @@
         <v>41</v>
       </c>
       <c r="I181" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J181" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -6670,10 +6733,10 @@
         <v>41</v>
       </c>
       <c r="I182" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J182" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -6702,10 +6765,10 @@
         <v>41</v>
       </c>
       <c r="I183" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J183" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -6734,10 +6797,10 @@
         <v>41</v>
       </c>
       <c r="I184" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J184" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="185" spans="1:10">
@@ -6766,10 +6829,10 @@
         <v>41</v>
       </c>
       <c r="I185" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J185" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -6798,10 +6861,10 @@
         <v>41</v>
       </c>
       <c r="I186" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J186" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -6830,10 +6893,10 @@
         <v>41</v>
       </c>
       <c r="I187" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J187" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -6862,10 +6925,10 @@
         <v>41</v>
       </c>
       <c r="I188" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J188" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="189" spans="1:10">
@@ -6894,10 +6957,10 @@
         <v>41</v>
       </c>
       <c r="I189" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J189" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -6926,10 +6989,10 @@
         <v>45</v>
       </c>
       <c r="I190" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J190" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="191" spans="1:10">
@@ -6958,10 +7021,10 @@
         <v>45</v>
       </c>
       <c r="I191" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J191" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -6990,10 +7053,10 @@
         <v>45</v>
       </c>
       <c r="I192" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J192" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -7022,10 +7085,10 @@
         <v>45</v>
       </c>
       <c r="I193" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J193" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -7054,10 +7117,10 @@
         <v>45</v>
       </c>
       <c r="I194" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J194" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -7086,10 +7149,10 @@
         <v>45</v>
       </c>
       <c r="I195" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J195" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -7118,10 +7181,10 @@
         <v>45</v>
       </c>
       <c r="I196" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J196" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -7150,10 +7213,10 @@
         <v>45</v>
       </c>
       <c r="I197" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J197" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -7182,10 +7245,10 @@
         <v>45</v>
       </c>
       <c r="I198" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J198" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -7214,10 +7277,10 @@
         <v>45</v>
       </c>
       <c r="I199" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J199" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -7243,13 +7306,13 @@
         <v>44186</v>
       </c>
       <c r="H200" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I200" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J200" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -7278,10 +7341,10 @@
         <v>40</v>
       </c>
       <c r="I201" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J201" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -7310,10 +7373,10 @@
         <v>46</v>
       </c>
       <c r="I202" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="J202" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -7342,10 +7405,10 @@
         <v>46</v>
       </c>
       <c r="I203" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J203" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -7374,10 +7437,10 @@
         <v>47</v>
       </c>
       <c r="I204" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J204" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -7406,10 +7469,10 @@
         <v>45</v>
       </c>
       <c r="I205" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J205" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="206" spans="1:10">
@@ -7438,10 +7501,10 @@
         <v>45</v>
       </c>
       <c r="I206" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J206" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -7467,13 +7530,13 @@
         <v>44186</v>
       </c>
       <c r="H207" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I207" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J207" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -7502,10 +7565,10 @@
         <v>45</v>
       </c>
       <c r="I208" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J208" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="209" spans="1:10">
@@ -7534,10 +7597,10 @@
         <v>45</v>
       </c>
       <c r="I209" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J209" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="210" spans="1:10">
@@ -7563,13 +7626,13 @@
         <v>44186</v>
       </c>
       <c r="H210" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I210" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J210" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -7595,13 +7658,13 @@
         <v>44186</v>
       </c>
       <c r="H211" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I211" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J211" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="212" spans="1:10">
@@ -7630,10 +7693,10 @@
         <v>45</v>
       </c>
       <c r="I212" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J212" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="213" spans="1:10">
@@ -7662,10 +7725,10 @@
         <v>41</v>
       </c>
       <c r="I213" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J213" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -7694,10 +7757,10 @@
         <v>51</v>
       </c>
       <c r="I214" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J214" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="215" spans="1:10">
@@ -7723,13 +7786,13 @@
         <v>44186</v>
       </c>
       <c r="H215" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I215" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="J215" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -7758,10 +7821,10 @@
         <v>41</v>
       </c>
       <c r="I216" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J216" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -7790,10 +7853,10 @@
         <v>40</v>
       </c>
       <c r="I217" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J217" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="218" spans="1:10">
@@ -7822,10 +7885,10 @@
         <v>40</v>
       </c>
       <c r="I218" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J218" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="219" spans="1:10">
@@ -7854,10 +7917,10 @@
         <v>40</v>
       </c>
       <c r="I219" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J219" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="220" spans="1:10">
@@ -7886,10 +7949,10 @@
         <v>51</v>
       </c>
       <c r="I220" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J220" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="221" spans="1:10">
@@ -7918,10 +7981,10 @@
         <v>48</v>
       </c>
       <c r="I221" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J221" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="222" spans="1:10">
@@ -7950,10 +8013,10 @@
         <v>49</v>
       </c>
       <c r="I222" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J222" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="223" spans="1:10">
@@ -7982,10 +8045,10 @@
         <v>49</v>
       </c>
       <c r="I223" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J223" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
     <row r="224" spans="1:10">
@@ -8014,10 +8077,10 @@
         <v>49</v>
       </c>
       <c r="I224" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J224" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="225" spans="1:10">
@@ -8046,10 +8109,10 @@
         <v>50</v>
       </c>
       <c r="I225" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="J225" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="226" spans="1:10">
@@ -8078,10 +8141,10 @@
         <v>51</v>
       </c>
       <c r="I226" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J226" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -8110,10 +8173,10 @@
         <v>51</v>
       </c>
       <c r="I227" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J227" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="228" spans="1:10">
@@ -8142,10 +8205,10 @@
         <v>46</v>
       </c>
       <c r="I228" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="J228" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="229" spans="1:10">
@@ -8171,13 +8234,13 @@
         <v>44186</v>
       </c>
       <c r="H229" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I229" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="J229" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="230" spans="1:10">
@@ -8206,10 +8269,10 @@
         <v>51</v>
       </c>
       <c r="I230" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J230" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
     </row>
     <row r="231" spans="1:10">
@@ -8235,13 +8298,13 @@
         <v>44186</v>
       </c>
       <c r="H231" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I231" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J231" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="232" spans="1:10">
@@ -8270,10 +8333,10 @@
         <v>41</v>
       </c>
       <c r="I232" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J232" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="233" spans="1:10">
@@ -8302,10 +8365,10 @@
         <v>41</v>
       </c>
       <c r="I233" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J233" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="234" spans="1:10">
@@ -8331,13 +8394,13 @@
         <v>44186</v>
       </c>
       <c r="H234" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I234" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J234" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="235" spans="1:10">
@@ -8366,10 +8429,10 @@
         <v>41</v>
       </c>
       <c r="I235" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J235" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="236" spans="1:10">
@@ -8398,10 +8461,10 @@
         <v>52</v>
       </c>
       <c r="I236" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="J236" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="237" spans="1:10">
@@ -8430,10 +8493,10 @@
         <v>41</v>
       </c>
       <c r="I237" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J237" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="238" spans="1:10">
@@ -8462,10 +8525,10 @@
         <v>41</v>
       </c>
       <c r="I238" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J238" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="239" spans="1:10">
@@ -8494,10 +8557,10 @@
         <v>41</v>
       </c>
       <c r="I239" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J239" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="240" spans="1:10">
@@ -8526,10 +8589,10 @@
         <v>41</v>
       </c>
       <c r="I240" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J240" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="241" spans="1:10">
@@ -8558,10 +8621,10 @@
         <v>41</v>
       </c>
       <c r="I241" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J241" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="242" spans="1:10">
@@ -8587,13 +8650,13 @@
         <v>44187</v>
       </c>
       <c r="H242" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I242" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="J242" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
     <row r="243" spans="1:10">
@@ -8619,13 +8682,13 @@
         <v>44186</v>
       </c>
       <c r="H243" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I243" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J243" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
     <row r="244" spans="1:10">
@@ -8651,13 +8714,13 @@
         <v>44186</v>
       </c>
       <c r="H244" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I244" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J244" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="245" spans="1:10">
@@ -8686,10 +8749,10 @@
         <v>50</v>
       </c>
       <c r="I245" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="J245" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="246" spans="1:10">
@@ -8718,7 +8781,7 @@
         <v>53</v>
       </c>
       <c r="J246" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="247" spans="1:10">
@@ -8744,13 +8807,13 @@
         <v>44186</v>
       </c>
       <c r="H247" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I247" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J247" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
     <row r="248" spans="1:10">
@@ -8776,13 +8839,13 @@
         <v>44186</v>
       </c>
       <c r="H248" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I248" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J248" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="249" spans="1:10">
@@ -8808,13 +8871,13 @@
         <v>44186</v>
       </c>
       <c r="H249" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I249" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J249" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
     <row r="250" spans="1:10">
@@ -8840,13 +8903,13 @@
         <v>44186</v>
       </c>
       <c r="H250" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I250" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="J250" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
     <row r="251" spans="1:10">
@@ -8872,13 +8935,13 @@
         <v>44186</v>
       </c>
       <c r="H251" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I251" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J251" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="252" spans="1:10">
@@ -8907,10 +8970,10 @@
         <v>45</v>
       </c>
       <c r="I252" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J252" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="253" spans="1:10">
@@ -8936,13 +8999,13 @@
         <v>44186</v>
       </c>
       <c r="H253" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I253" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J253" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
     </row>
     <row r="254" spans="1:10">
@@ -8971,10 +9034,10 @@
         <v>41</v>
       </c>
       <c r="I254" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J254" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="255" spans="1:10">
@@ -9003,10 +9066,10 @@
         <v>41</v>
       </c>
       <c r="I255" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J255" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="256" spans="1:10">
@@ -9035,10 +9098,10 @@
         <v>46</v>
       </c>
       <c r="I256" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="J256" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="257" spans="1:10">
@@ -9067,10 +9130,10 @@
         <v>46</v>
       </c>
       <c r="I257" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="J257" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="258" spans="1:10">
@@ -9099,10 +9162,10 @@
         <v>46</v>
       </c>
       <c r="I258" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="J258" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="259" spans="1:10">
@@ -9131,10 +9194,10 @@
         <v>46</v>
       </c>
       <c r="I259" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J259" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="260" spans="1:10">
@@ -9163,10 +9226,10 @@
         <v>44</v>
       </c>
       <c r="I260" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J260" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
     </row>
     <row r="261" spans="1:10">
@@ -9195,10 +9258,10 @@
         <v>54</v>
       </c>
       <c r="I261" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="J261" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="262" spans="1:10">
@@ -9224,13 +9287,13 @@
         <v>44187</v>
       </c>
       <c r="H262" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I262" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J262" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
     </row>
     <row r="263" spans="1:10">
@@ -9259,10 +9322,10 @@
         <v>43</v>
       </c>
       <c r="I263" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J263" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="264" spans="1:10">
@@ -9291,10 +9354,10 @@
         <v>55</v>
       </c>
       <c r="I264" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="J264" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="265" spans="1:10">
@@ -9323,10 +9386,10 @@
         <v>40</v>
       </c>
       <c r="I265" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J265" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="266" spans="1:10">
@@ -9355,10 +9418,10 @@
         <v>56</v>
       </c>
       <c r="I266" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="J266" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="267" spans="1:10">
@@ -9384,13 +9447,13 @@
         <v>44187</v>
       </c>
       <c r="H267" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I267" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J267" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
     <row r="268" spans="1:10">
@@ -9419,10 +9482,10 @@
         <v>57</v>
       </c>
       <c r="I268" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J268" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="269" spans="1:10">
@@ -9451,10 +9514,10 @@
         <v>57</v>
       </c>
       <c r="I269" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J269" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="270" spans="1:10">
@@ -9483,10 +9546,10 @@
         <v>41</v>
       </c>
       <c r="I270" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J270" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="271" spans="1:10">
@@ -9512,13 +9575,13 @@
         <v>44187</v>
       </c>
       <c r="H271" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I271" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J271" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="272" spans="1:10">
@@ -9544,13 +9607,13 @@
         <v>44187</v>
       </c>
       <c r="H272" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I272" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="J272" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
     </row>
     <row r="273" spans="1:10">
@@ -9579,10 +9642,10 @@
         <v>58</v>
       </c>
       <c r="I273" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="J273" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
     <row r="274" spans="1:10">
@@ -9611,10 +9674,10 @@
         <v>49</v>
       </c>
       <c r="I274" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J274" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
     <row r="275" spans="1:10">
@@ -9643,10 +9706,10 @@
         <v>49</v>
       </c>
       <c r="I275" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J275" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
     <row r="276" spans="1:10">
@@ -9675,10 +9738,10 @@
         <v>59</v>
       </c>
       <c r="I276" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J276" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
     </row>
     <row r="277" spans="1:10">
@@ -9707,10 +9770,10 @@
         <v>50</v>
       </c>
       <c r="I277" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J277" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="278" spans="1:10">
@@ -9739,10 +9802,10 @@
         <v>50</v>
       </c>
       <c r="I278" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J278" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="279" spans="1:10">
@@ -9771,10 +9834,10 @@
         <v>50</v>
       </c>
       <c r="I279" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J279" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="280" spans="1:10">
@@ -9803,10 +9866,10 @@
         <v>40</v>
       </c>
       <c r="I280" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J280" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="281" spans="1:10">
@@ -9835,10 +9898,10 @@
         <v>50</v>
       </c>
       <c r="I281" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="J281" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
     <row r="282" spans="1:10">
@@ -9867,10 +9930,10 @@
         <v>40</v>
       </c>
       <c r="I282" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J282" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="283" spans="1:10">
@@ -9899,10 +9962,10 @@
         <v>41</v>
       </c>
       <c r="I283" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J283" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="284" spans="1:10">
@@ -9931,10 +9994,10 @@
         <v>50</v>
       </c>
       <c r="I284" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="J284" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
     <row r="285" spans="1:10">
@@ -9960,13 +10023,13 @@
         <v>44187</v>
       </c>
       <c r="H285" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I285" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="J285" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="286" spans="1:10">
@@ -9992,13 +10055,13 @@
         <v>44187</v>
       </c>
       <c r="H286" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I286" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="J286" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="287" spans="1:10">
@@ -10024,13 +10087,13 @@
         <v>44187</v>
       </c>
       <c r="H287" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I287" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="J287" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="288" spans="1:10">
@@ -10056,13 +10119,13 @@
         <v>44187</v>
       </c>
       <c r="H288" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I288" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J288" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="289" spans="1:10">
@@ -10088,13 +10151,13 @@
         <v>44187</v>
       </c>
       <c r="H289" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I289" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="J289" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
     <row r="290" spans="1:10">
@@ -10123,10 +10186,10 @@
         <v>47</v>
       </c>
       <c r="I290" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="J290" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="291" spans="1:10">
@@ -10155,10 +10218,10 @@
         <v>47</v>
       </c>
       <c r="I291" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="J291" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="292" spans="1:10">
@@ -10187,10 +10250,10 @@
         <v>60</v>
       </c>
       <c r="I292" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="J292" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="293" spans="1:10">
@@ -10219,10 +10282,10 @@
         <v>45</v>
       </c>
       <c r="I293" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J293" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="294" spans="1:10">
@@ -10248,13 +10311,13 @@
         <v>44187</v>
       </c>
       <c r="H294" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I294" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="J294" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
     </row>
     <row r="295" spans="1:10">
@@ -10283,10 +10346,10 @@
         <v>48</v>
       </c>
       <c r="I295" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J295" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
     <row r="296" spans="1:10">
@@ -10315,10 +10378,10 @@
         <v>48</v>
       </c>
       <c r="I296" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J296" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
     <row r="297" spans="1:10">
@@ -10347,10 +10410,10 @@
         <v>45</v>
       </c>
       <c r="I297" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J297" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="298" spans="1:10">
@@ -10376,10 +10439,10 @@
         <v>45</v>
       </c>
       <c r="I298" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J298" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="299" spans="1:10">
@@ -10408,10 +10471,10 @@
         <v>45</v>
       </c>
       <c r="I299" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J299" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="300" spans="1:10">
@@ -10440,10 +10503,10 @@
         <v>45</v>
       </c>
       <c r="I300" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J300" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="301" spans="1:10">
@@ -10472,10 +10535,10 @@
         <v>45</v>
       </c>
       <c r="I301" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J301" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="302" spans="1:10">
@@ -10504,10 +10567,10 @@
         <v>45</v>
       </c>
       <c r="I302" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J302" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="303" spans="1:10">
@@ -10536,7 +10599,7 @@
         <v>45</v>
       </c>
       <c r="J303" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="304" spans="1:10">
@@ -10565,10 +10628,10 @@
         <v>45</v>
       </c>
       <c r="I304" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J304" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="305" spans="1:10">
@@ -10597,10 +10660,10 @@
         <v>45</v>
       </c>
       <c r="I305" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J305" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="306" spans="1:10">
@@ -10626,13 +10689,13 @@
         <v>44188</v>
       </c>
       <c r="H306" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I306" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="J306" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="307" spans="1:10">
@@ -10661,10 +10724,10 @@
         <v>62</v>
       </c>
       <c r="I307" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="J307" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="308" spans="1:10">
@@ -10693,10 +10756,10 @@
         <v>63</v>
       </c>
       <c r="I308" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="J308" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="309" spans="1:10">
@@ -10722,13 +10785,13 @@
         <v>44188</v>
       </c>
       <c r="H309" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I309" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="J309" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="310" spans="1:10">
@@ -10757,10 +10820,10 @@
         <v>64</v>
       </c>
       <c r="I310" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J310" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="311" spans="1:10">
@@ -10789,10 +10852,10 @@
         <v>65</v>
       </c>
       <c r="I311" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="J311" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="312" spans="1:10">
@@ -10821,10 +10884,10 @@
         <v>53</v>
       </c>
       <c r="I312" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="J312" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="313" spans="1:10">
@@ -10853,10 +10916,10 @@
         <v>65</v>
       </c>
       <c r="I313" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="J313" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="314" spans="1:10">
@@ -10885,10 +10948,10 @@
         <v>65</v>
       </c>
       <c r="I314" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="J314" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="315" spans="1:10">
@@ -10917,10 +10980,10 @@
         <v>45</v>
       </c>
       <c r="I315" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J315" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="316" spans="1:10">
@@ -10949,10 +11012,10 @@
         <v>51</v>
       </c>
       <c r="I316" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J316" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="317" spans="1:10">
@@ -10981,10 +11044,10 @@
         <v>45</v>
       </c>
       <c r="I317" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J317" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="318" spans="1:10">
@@ -11013,10 +11076,10 @@
         <v>45</v>
       </c>
       <c r="I318" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J318" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="319" spans="1:10">
@@ -11045,10 +11108,10 @@
         <v>45</v>
       </c>
       <c r="I319" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="J319" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="320" spans="1:10">
@@ -11077,10 +11140,10 @@
         <v>45</v>
       </c>
       <c r="I320" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J320" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="321" spans="1:10">
@@ -11106,13 +11169,13 @@
         <v>44188</v>
       </c>
       <c r="H321" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I321" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="J321" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="322" spans="1:10">
@@ -11141,10 +11204,10 @@
         <v>45</v>
       </c>
       <c r="I322" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J322" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="323" spans="1:10">
@@ -11173,10 +11236,10 @@
         <v>45</v>
       </c>
       <c r="I323" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J323" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="324" spans="1:10">
@@ -11202,13 +11265,13 @@
         <v>44188</v>
       </c>
       <c r="H324" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I324" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="J324" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="325" spans="1:10">
@@ -11234,13 +11297,13 @@
         <v>44188</v>
       </c>
       <c r="H325" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I325" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="J325" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="326" spans="1:10">
@@ -11269,10 +11332,10 @@
         <v>41</v>
       </c>
       <c r="I326" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="J326" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
     </row>
     <row r="327" spans="1:10">
@@ -11298,13 +11361,13 @@
         <v>44188</v>
       </c>
       <c r="H327" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I327" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J327" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="328" spans="1:10">
@@ -11333,10 +11396,10 @@
         <v>40</v>
       </c>
       <c r="I328" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J328" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="329" spans="1:10">
@@ -11365,10 +11428,10 @@
         <v>45</v>
       </c>
       <c r="I329" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J329" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="330" spans="1:10">
@@ -11397,10 +11460,10 @@
         <v>41</v>
       </c>
       <c r="I330" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J330" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="331" spans="1:10">
@@ -11429,10 +11492,10 @@
         <v>40</v>
       </c>
       <c r="I331" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J331" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="332" spans="1:10">
@@ -11461,10 +11524,10 @@
         <v>56</v>
       </c>
       <c r="I332" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="J332" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="333" spans="1:10">
@@ -11490,10 +11553,10 @@
         <v>44188</v>
       </c>
       <c r="H333" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J333" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
     </row>
     <row r="334" spans="1:10">
@@ -11522,10 +11585,10 @@
         <v>66</v>
       </c>
       <c r="I334" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="J334" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="335" spans="1:10">
@@ -11554,10 +11617,10 @@
         <v>50</v>
       </c>
       <c r="I335" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="J335" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="336" spans="1:10">
@@ -11586,10 +11649,10 @@
         <v>50</v>
       </c>
       <c r="I336" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="J336" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="337" spans="1:10">
@@ -11618,10 +11681,10 @@
         <v>51</v>
       </c>
       <c r="I337" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="J337" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="338" spans="1:10">
@@ -11647,13 +11710,13 @@
         <v>44188</v>
       </c>
       <c r="H338" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I338" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="J338" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="339" spans="1:10">
@@ -11679,10 +11742,10 @@
         <v>44188</v>
       </c>
       <c r="H339" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J339" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="340" spans="1:10">
@@ -11711,10 +11774,10 @@
         <v>48</v>
       </c>
       <c r="I340" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J340" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
     <row r="341" spans="1:10">
@@ -11743,10 +11806,10 @@
         <v>66</v>
       </c>
       <c r="I341" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="J341" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
     <row r="342" spans="1:10">
@@ -11775,10 +11838,10 @@
         <v>66</v>
       </c>
       <c r="I342" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J342" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="343" spans="1:10">
@@ -11807,10 +11870,10 @@
         <v>67</v>
       </c>
       <c r="I343" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J343" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="344" spans="1:10">
@@ -11836,13 +11899,13 @@
         <v>44188</v>
       </c>
       <c r="H344" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I344" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J344" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
     </row>
     <row r="345" spans="1:10">
@@ -11868,13 +11931,13 @@
         <v>44188</v>
       </c>
       <c r="H345" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I345" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J345" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="346" spans="1:10">
@@ -11903,10 +11966,10 @@
         <v>68</v>
       </c>
       <c r="I346" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J346" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="347" spans="1:10">
@@ -11935,10 +11998,10 @@
         <v>56</v>
       </c>
       <c r="I347" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="J347" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="348" spans="1:10">
@@ -11967,10 +12030,10 @@
         <v>40</v>
       </c>
       <c r="I348" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J348" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="349" spans="1:10">
@@ -11999,10 +12062,10 @@
         <v>40</v>
       </c>
       <c r="I349" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J349" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="350" spans="1:10">
@@ -12031,10 +12094,10 @@
         <v>45</v>
       </c>
       <c r="I350" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J350" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="351" spans="1:10">
@@ -12060,13 +12123,13 @@
         <v>44188</v>
       </c>
       <c r="H351" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I351" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="J351" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="352" spans="1:10">
@@ -12095,10 +12158,10 @@
         <v>45</v>
       </c>
       <c r="I352" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="J352" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="353" spans="1:10">
@@ -12124,13 +12187,13 @@
         <v>44188</v>
       </c>
       <c r="H353" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I353" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J353" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="354" spans="1:10">
@@ -12159,10 +12222,10 @@
         <v>45</v>
       </c>
       <c r="I354" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J354" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="355" spans="1:10">
@@ -12188,13 +12251,13 @@
         <v>44188</v>
       </c>
       <c r="H355" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I355" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="J355" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="356" spans="1:10">
@@ -12223,10 +12286,10 @@
         <v>45</v>
       </c>
       <c r="I356" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J356" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="357" spans="1:10">
@@ -12255,10 +12318,10 @@
         <v>45</v>
       </c>
       <c r="I357" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J357" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="358" spans="1:10">
@@ -12287,10 +12350,10 @@
         <v>44</v>
       </c>
       <c r="I358" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J358" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
     </row>
     <row r="359" spans="1:10">
@@ -12319,10 +12382,10 @@
         <v>44</v>
       </c>
       <c r="I359" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="J359" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="360" spans="1:10">
@@ -12351,10 +12414,10 @@
         <v>70</v>
       </c>
       <c r="I360" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J360" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="361" spans="1:10">
@@ -12383,10 +12446,10 @@
         <v>44</v>
       </c>
       <c r="I361" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="J361" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="362" spans="1:10">
@@ -12415,10 +12478,10 @@
         <v>43</v>
       </c>
       <c r="I362" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J362" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="363" spans="1:10">
@@ -12447,10 +12510,10 @@
         <v>44</v>
       </c>
       <c r="I363" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="J363" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="364" spans="1:10">
@@ -12479,10 +12542,1476 @@
         <v>44</v>
       </c>
       <c r="I364" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="J364" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10">
+      <c r="A365">
+        <v>4557</v>
+      </c>
+      <c r="B365">
+        <v>27</v>
+      </c>
+      <c r="C365" t="s">
+        <v>11</v>
+      </c>
+      <c r="D365" t="s">
+        <v>12</v>
+      </c>
+      <c r="E365" t="s">
+        <v>71</v>
+      </c>
+      <c r="F365" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G365" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H365" t="s">
+        <v>71</v>
+      </c>
+      <c r="I365" t="s">
+        <v>155</v>
+      </c>
+      <c r="J365" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10">
+      <c r="A366">
+        <v>4558</v>
+      </c>
+      <c r="B366">
+        <v>13</v>
+      </c>
+      <c r="C366" t="s">
+        <v>11</v>
+      </c>
+      <c r="D366" t="s">
+        <v>12</v>
+      </c>
+      <c r="E366" t="s">
+        <v>58</v>
+      </c>
+      <c r="F366" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G366" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H366" t="s">
+        <v>58</v>
+      </c>
+      <c r="I366" t="s">
+        <v>156</v>
+      </c>
+      <c r="J366" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10">
+      <c r="A367">
+        <v>4559</v>
+      </c>
+      <c r="B367">
+        <v>9</v>
+      </c>
+      <c r="C367" t="s">
+        <v>11</v>
+      </c>
+      <c r="D367" t="s">
+        <v>12</v>
+      </c>
+      <c r="E367" t="s">
+        <v>58</v>
+      </c>
+      <c r="F367" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G367" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H367" t="s">
+        <v>58</v>
+      </c>
+      <c r="I367" t="s">
+        <v>156</v>
+      </c>
+      <c r="J367" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10">
+      <c r="A368">
+        <v>4560</v>
+      </c>
+      <c r="B368">
+        <v>35</v>
+      </c>
+      <c r="C368" t="s">
+        <v>11</v>
+      </c>
+      <c r="D368" t="s">
+        <v>12</v>
+      </c>
+      <c r="E368" t="s">
+        <v>59</v>
+      </c>
+      <c r="F368" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G368" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H368" t="s">
+        <v>59</v>
+      </c>
+      <c r="I368" t="s">
+        <v>157</v>
+      </c>
+      <c r="J368" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10">
+      <c r="A369">
+        <v>4561</v>
+      </c>
+      <c r="B369">
+        <v>34</v>
+      </c>
+      <c r="C369" t="s">
+        <v>10</v>
+      </c>
+      <c r="D369" t="s">
+        <v>12</v>
+      </c>
+      <c r="E369" t="s">
+        <v>59</v>
+      </c>
+      <c r="F369" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G369" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H369" t="s">
+        <v>59</v>
+      </c>
+      <c r="I369" t="s">
+        <v>89</v>
+      </c>
+      <c r="J369" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10">
+      <c r="A370">
+        <v>4562</v>
+      </c>
+      <c r="B370">
+        <v>23</v>
+      </c>
+      <c r="C370" t="s">
+        <v>11</v>
+      </c>
+      <c r="D370" t="s">
+        <v>12</v>
+      </c>
+      <c r="E370" t="s">
+        <v>59</v>
+      </c>
+      <c r="F370" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G370" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H370" t="s">
+        <v>59</v>
+      </c>
+      <c r="I370" t="s">
+        <v>158</v>
+      </c>
+      <c r="J370" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10">
+      <c r="A371">
+        <v>4563</v>
+      </c>
+      <c r="B371">
+        <v>24</v>
+      </c>
+      <c r="C371" t="s">
+        <v>11</v>
+      </c>
+      <c r="D371" t="s">
+        <v>12</v>
+      </c>
+      <c r="E371" t="s">
+        <v>72</v>
+      </c>
+      <c r="F371" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G371" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H371" t="s">
+        <v>72</v>
+      </c>
+      <c r="I371" t="s">
+        <v>159</v>
+      </c>
+      <c r="J371" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10">
+      <c r="A372">
+        <v>4564</v>
+      </c>
+      <c r="B372">
+        <v>34</v>
+      </c>
+      <c r="C372" t="s">
+        <v>10</v>
+      </c>
+      <c r="D372" t="s">
+        <v>12</v>
+      </c>
+      <c r="E372" t="s">
+        <v>66</v>
+      </c>
+      <c r="F372" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G372" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H372" t="s">
+        <v>66</v>
+      </c>
+      <c r="I372" t="s">
+        <v>89</v>
+      </c>
+      <c r="J372" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10">
+      <c r="A373">
+        <v>4565</v>
+      </c>
+      <c r="B373">
+        <v>33</v>
+      </c>
+      <c r="C373" t="s">
+        <v>11</v>
+      </c>
+      <c r="D373" t="s">
+        <v>12</v>
+      </c>
+      <c r="E373" t="s">
+        <v>43</v>
+      </c>
+      <c r="F373" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G373" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H373" t="s">
+        <v>77</v>
+      </c>
+      <c r="I373" t="s">
+        <v>160</v>
+      </c>
+      <c r="J373" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10">
+      <c r="A374">
+        <v>4566</v>
+      </c>
+      <c r="B374">
+        <v>28</v>
+      </c>
+      <c r="C374" t="s">
+        <v>11</v>
+      </c>
+      <c r="D374" t="s">
+        <v>12</v>
+      </c>
+      <c r="E374" t="s">
+        <v>51</v>
+      </c>
+      <c r="F374" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G374" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H374" t="s">
+        <v>51</v>
+      </c>
+      <c r="I374" t="s">
         <v>161</v>
+      </c>
+      <c r="J374" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10">
+      <c r="A375">
+        <v>4567</v>
+      </c>
+      <c r="B375">
+        <v>42</v>
+      </c>
+      <c r="C375" t="s">
+        <v>10</v>
+      </c>
+      <c r="D375" t="s">
+        <v>12</v>
+      </c>
+      <c r="E375" t="s">
+        <v>73</v>
+      </c>
+      <c r="F375" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G375" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H375" t="s">
+        <v>73</v>
+      </c>
+      <c r="I375" t="s">
+        <v>162</v>
+      </c>
+      <c r="J375" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10">
+      <c r="A376">
+        <v>4568</v>
+      </c>
+      <c r="B376">
+        <v>40</v>
+      </c>
+      <c r="C376" t="s">
+        <v>10</v>
+      </c>
+      <c r="D376" t="s">
+        <v>12</v>
+      </c>
+      <c r="E376" t="s">
+        <v>42</v>
+      </c>
+      <c r="F376" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G376" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H376" t="s">
+        <v>41</v>
+      </c>
+      <c r="I376" t="s">
+        <v>102</v>
+      </c>
+      <c r="J376" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10">
+      <c r="A377">
+        <v>4569</v>
+      </c>
+      <c r="B377">
+        <v>60</v>
+      </c>
+      <c r="C377" t="s">
+        <v>11</v>
+      </c>
+      <c r="D377" t="s">
+        <v>12</v>
+      </c>
+      <c r="E377" t="s">
+        <v>51</v>
+      </c>
+      <c r="F377" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G377" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H377" t="s">
+        <v>51</v>
+      </c>
+      <c r="I377" t="s">
+        <v>89</v>
+      </c>
+      <c r="J377" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10">
+      <c r="A378">
+        <v>4570</v>
+      </c>
+      <c r="B378">
+        <v>64</v>
+      </c>
+      <c r="C378" t="s">
+        <v>11</v>
+      </c>
+      <c r="D378" t="s">
+        <v>25</v>
+      </c>
+      <c r="E378" t="s">
+        <v>42</v>
+      </c>
+      <c r="F378" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G378" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H378" t="s">
+        <v>75</v>
+      </c>
+      <c r="I378" t="s">
+        <v>163</v>
+      </c>
+      <c r="J378" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10">
+      <c r="A379">
+        <v>4571</v>
+      </c>
+      <c r="B379">
+        <v>48</v>
+      </c>
+      <c r="C379" t="s">
+        <v>11</v>
+      </c>
+      <c r="D379" t="s">
+        <v>12</v>
+      </c>
+      <c r="E379" t="s">
+        <v>44</v>
+      </c>
+      <c r="F379" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G379" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H379" t="s">
+        <v>75</v>
+      </c>
+      <c r="I379" t="s">
+        <v>164</v>
+      </c>
+      <c r="J379" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10">
+      <c r="A380">
+        <v>4572</v>
+      </c>
+      <c r="B380">
+        <v>62</v>
+      </c>
+      <c r="C380" t="s">
+        <v>11</v>
+      </c>
+      <c r="D380" t="s">
+        <v>12</v>
+      </c>
+      <c r="E380" t="s">
+        <v>40</v>
+      </c>
+      <c r="F380" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G380" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H380" t="s">
+        <v>40</v>
+      </c>
+      <c r="I380" t="s">
+        <v>89</v>
+      </c>
+      <c r="J380" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10">
+      <c r="A381">
+        <v>4573</v>
+      </c>
+      <c r="B381">
+        <v>33</v>
+      </c>
+      <c r="C381" t="s">
+        <v>10</v>
+      </c>
+      <c r="D381" t="s">
+        <v>12</v>
+      </c>
+      <c r="E381" t="s">
+        <v>44</v>
+      </c>
+      <c r="F381" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G381" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H381" t="s">
+        <v>44</v>
+      </c>
+      <c r="I381" t="s">
+        <v>89</v>
+      </c>
+      <c r="J381" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10">
+      <c r="A382">
+        <v>4574</v>
+      </c>
+      <c r="B382">
+        <v>57</v>
+      </c>
+      <c r="C382" t="s">
+        <v>10</v>
+      </c>
+      <c r="D382" t="s">
+        <v>12</v>
+      </c>
+      <c r="E382" t="s">
+        <v>42</v>
+      </c>
+      <c r="F382" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G382" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H382" t="s">
+        <v>75</v>
+      </c>
+      <c r="I382" t="s">
+        <v>92</v>
+      </c>
+      <c r="J382" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10">
+      <c r="A383">
+        <v>4575</v>
+      </c>
+      <c r="B383">
+        <v>25</v>
+      </c>
+      <c r="C383" t="s">
+        <v>11</v>
+      </c>
+      <c r="D383" t="s">
+        <v>12</v>
+      </c>
+      <c r="E383" t="s">
+        <v>66</v>
+      </c>
+      <c r="F383" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G383" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H383" t="s">
+        <v>66</v>
+      </c>
+      <c r="I383" t="s">
+        <v>165</v>
+      </c>
+      <c r="J383" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10">
+      <c r="A384">
+        <v>4576</v>
+      </c>
+      <c r="B384">
+        <v>46</v>
+      </c>
+      <c r="C384" t="s">
+        <v>11</v>
+      </c>
+      <c r="D384" t="s">
+        <v>12</v>
+      </c>
+      <c r="E384" t="s">
+        <v>44</v>
+      </c>
+      <c r="F384" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G384" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H384" t="s">
+        <v>44</v>
+      </c>
+      <c r="I384" t="s">
+        <v>152</v>
+      </c>
+      <c r="J384" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10">
+      <c r="A385">
+        <v>4577</v>
+      </c>
+      <c r="B385">
+        <v>37</v>
+      </c>
+      <c r="C385" t="s">
+        <v>11</v>
+      </c>
+      <c r="D385" t="s">
+        <v>12</v>
+      </c>
+      <c r="E385" t="s">
+        <v>41</v>
+      </c>
+      <c r="F385" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G385" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H385" t="s">
+        <v>41</v>
+      </c>
+      <c r="I385" t="s">
+        <v>79</v>
+      </c>
+      <c r="J385" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10">
+      <c r="A386">
+        <v>4578</v>
+      </c>
+      <c r="B386">
+        <v>28</v>
+      </c>
+      <c r="C386" t="s">
+        <v>11</v>
+      </c>
+      <c r="D386" t="s">
+        <v>12</v>
+      </c>
+      <c r="E386" t="s">
+        <v>41</v>
+      </c>
+      <c r="F386" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G386" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H386" t="s">
+        <v>41</v>
+      </c>
+      <c r="I386" t="s">
+        <v>89</v>
+      </c>
+      <c r="J386" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10">
+      <c r="A387">
+        <v>4579</v>
+      </c>
+      <c r="B387">
+        <v>58</v>
+      </c>
+      <c r="C387" t="s">
+        <v>11</v>
+      </c>
+      <c r="D387" t="s">
+        <v>12</v>
+      </c>
+      <c r="E387" t="s">
+        <v>42</v>
+      </c>
+      <c r="F387" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G387" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H387" t="s">
+        <v>75</v>
+      </c>
+      <c r="I387" t="s">
+        <v>86</v>
+      </c>
+      <c r="J387" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10">
+      <c r="A388">
+        <v>4580</v>
+      </c>
+      <c r="B388">
+        <v>17</v>
+      </c>
+      <c r="C388" t="s">
+        <v>11</v>
+      </c>
+      <c r="D388" t="s">
+        <v>27</v>
+      </c>
+      <c r="E388" t="s">
+        <v>42</v>
+      </c>
+      <c r="F388" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G388" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H388" t="s">
+        <v>75</v>
+      </c>
+      <c r="I388" t="s">
+        <v>82</v>
+      </c>
+      <c r="J388" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10">
+      <c r="A389">
+        <v>4581</v>
+      </c>
+      <c r="B389">
+        <v>54</v>
+      </c>
+      <c r="C389" t="s">
+        <v>11</v>
+      </c>
+      <c r="D389" t="s">
+        <v>12</v>
+      </c>
+      <c r="E389" t="s">
+        <v>42</v>
+      </c>
+      <c r="F389" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G389" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H389" t="s">
+        <v>75</v>
+      </c>
+      <c r="I389" t="s">
+        <v>118</v>
+      </c>
+      <c r="J389" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10">
+      <c r="A390">
+        <v>4582</v>
+      </c>
+      <c r="B390">
+        <v>37</v>
+      </c>
+      <c r="C390" t="s">
+        <v>11</v>
+      </c>
+      <c r="D390" t="s">
+        <v>27</v>
+      </c>
+      <c r="E390" t="s">
+        <v>42</v>
+      </c>
+      <c r="F390" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G390" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H390" t="s">
+        <v>75</v>
+      </c>
+      <c r="I390" t="s">
+        <v>119</v>
+      </c>
+      <c r="J390" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10">
+      <c r="A391">
+        <v>4583</v>
+      </c>
+      <c r="B391">
+        <v>23</v>
+      </c>
+      <c r="C391" t="s">
+        <v>11</v>
+      </c>
+      <c r="D391" t="s">
+        <v>12</v>
+      </c>
+      <c r="E391" t="s">
+        <v>46</v>
+      </c>
+      <c r="F391" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G391" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H391" t="s">
+        <v>45</v>
+      </c>
+      <c r="I391" t="s">
+        <v>89</v>
+      </c>
+      <c r="J391" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10">
+      <c r="A392">
+        <v>4584</v>
+      </c>
+      <c r="B392">
+        <v>37</v>
+      </c>
+      <c r="C392" t="s">
+        <v>10</v>
+      </c>
+      <c r="D392" t="s">
+        <v>12</v>
+      </c>
+      <c r="E392" t="s">
+        <v>42</v>
+      </c>
+      <c r="F392" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G392" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H392" t="s">
+        <v>75</v>
+      </c>
+      <c r="I392" t="s">
+        <v>166</v>
+      </c>
+      <c r="J392" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10">
+      <c r="A393">
+        <v>4585</v>
+      </c>
+      <c r="B393">
+        <v>37</v>
+      </c>
+      <c r="C393" t="s">
+        <v>10</v>
+      </c>
+      <c r="D393" t="s">
+        <v>12</v>
+      </c>
+      <c r="E393" t="s">
+        <v>42</v>
+      </c>
+      <c r="F393" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G393" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H393" t="s">
+        <v>75</v>
+      </c>
+      <c r="I393" t="s">
+        <v>166</v>
+      </c>
+      <c r="J393" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10">
+      <c r="A394">
+        <v>4586</v>
+      </c>
+      <c r="B394">
+        <v>71</v>
+      </c>
+      <c r="C394" t="s">
+        <v>10</v>
+      </c>
+      <c r="D394" t="s">
+        <v>12</v>
+      </c>
+      <c r="E394" t="s">
+        <v>41</v>
+      </c>
+      <c r="F394" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G394" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H394" t="s">
+        <v>41</v>
+      </c>
+      <c r="I394" t="s">
+        <v>101</v>
+      </c>
+      <c r="J394" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10">
+      <c r="A395">
+        <v>4587</v>
+      </c>
+      <c r="B395">
+        <v>41</v>
+      </c>
+      <c r="C395" t="s">
+        <v>11</v>
+      </c>
+      <c r="D395" t="s">
+        <v>12</v>
+      </c>
+      <c r="E395" t="s">
+        <v>42</v>
+      </c>
+      <c r="F395" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G395" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H395" t="s">
+        <v>75</v>
+      </c>
+      <c r="I395" t="s">
+        <v>124</v>
+      </c>
+      <c r="J395" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10">
+      <c r="A396">
+        <v>4588</v>
+      </c>
+      <c r="B396">
+        <v>39</v>
+      </c>
+      <c r="C396" t="s">
+        <v>10</v>
+      </c>
+      <c r="D396" t="s">
+        <v>12</v>
+      </c>
+      <c r="E396" t="s">
+        <v>41</v>
+      </c>
+      <c r="F396" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G396" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H396" t="s">
+        <v>41</v>
+      </c>
+      <c r="I396" t="s">
+        <v>79</v>
+      </c>
+      <c r="J396" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10">
+      <c r="A397">
+        <v>4589</v>
+      </c>
+      <c r="B397">
+        <v>49</v>
+      </c>
+      <c r="C397" t="s">
+        <v>10</v>
+      </c>
+      <c r="D397" t="s">
+        <v>12</v>
+      </c>
+      <c r="E397" t="s">
+        <v>40</v>
+      </c>
+      <c r="F397" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G397" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H397" t="s">
+        <v>40</v>
+      </c>
+      <c r="I397" t="s">
+        <v>167</v>
+      </c>
+      <c r="J397" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10">
+      <c r="A398">
+        <v>4590</v>
+      </c>
+      <c r="B398">
+        <v>40</v>
+      </c>
+      <c r="C398" t="s">
+        <v>10</v>
+      </c>
+      <c r="D398" t="s">
+        <v>12</v>
+      </c>
+      <c r="E398" t="s">
+        <v>40</v>
+      </c>
+      <c r="F398" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G398" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H398" t="s">
+        <v>75</v>
+      </c>
+      <c r="I398" t="s">
+        <v>168</v>
+      </c>
+      <c r="J398" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10">
+      <c r="A399">
+        <v>4591</v>
+      </c>
+      <c r="B399">
+        <v>47</v>
+      </c>
+      <c r="C399" t="s">
+        <v>10</v>
+      </c>
+      <c r="D399" t="s">
+        <v>12</v>
+      </c>
+      <c r="E399" t="s">
+        <v>41</v>
+      </c>
+      <c r="F399" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G399" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H399" t="s">
+        <v>41</v>
+      </c>
+      <c r="I399" t="s">
+        <v>79</v>
+      </c>
+      <c r="J399" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10">
+      <c r="A400">
+        <v>4592</v>
+      </c>
+      <c r="B400">
+        <v>35</v>
+      </c>
+      <c r="C400" t="s">
+        <v>11</v>
+      </c>
+      <c r="D400" t="s">
+        <v>12</v>
+      </c>
+      <c r="E400" t="s">
+        <v>50</v>
+      </c>
+      <c r="F400" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G400" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H400" t="s">
+        <v>50</v>
+      </c>
+      <c r="I400" t="s">
+        <v>129</v>
+      </c>
+      <c r="J400" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10">
+      <c r="A401">
+        <v>4593</v>
+      </c>
+      <c r="B401">
+        <v>51</v>
+      </c>
+      <c r="C401" t="s">
+        <v>10</v>
+      </c>
+      <c r="D401" t="s">
+        <v>12</v>
+      </c>
+      <c r="E401" t="s">
+        <v>42</v>
+      </c>
+      <c r="F401" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G401" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H401" t="s">
+        <v>45</v>
+      </c>
+      <c r="I401" t="s">
+        <v>89</v>
+      </c>
+      <c r="J401" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10">
+      <c r="A402">
+        <v>4594</v>
+      </c>
+      <c r="B402">
+        <v>27</v>
+      </c>
+      <c r="C402" t="s">
+        <v>10</v>
+      </c>
+      <c r="D402" t="s">
+        <v>12</v>
+      </c>
+      <c r="E402" t="s">
+        <v>69</v>
+      </c>
+      <c r="F402" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G402" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H402" t="s">
+        <v>69</v>
+      </c>
+      <c r="I402" t="s">
+        <v>169</v>
+      </c>
+      <c r="J402" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10">
+      <c r="A403">
+        <v>4595</v>
+      </c>
+      <c r="B403">
+        <v>46</v>
+      </c>
+      <c r="C403" t="s">
+        <v>11</v>
+      </c>
+      <c r="D403" t="s">
+        <v>12</v>
+      </c>
+      <c r="E403" t="s">
+        <v>69</v>
+      </c>
+      <c r="F403" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G403" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H403" t="s">
+        <v>69</v>
+      </c>
+      <c r="I403" t="s">
+        <v>89</v>
+      </c>
+      <c r="J403" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10">
+      <c r="A404">
+        <v>4596</v>
+      </c>
+      <c r="C404" t="s">
+        <v>10</v>
+      </c>
+      <c r="D404" t="s">
+        <v>12</v>
+      </c>
+      <c r="E404" t="s">
+        <v>69</v>
+      </c>
+      <c r="F404" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G404" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H404" t="s">
+        <v>69</v>
+      </c>
+      <c r="I404" t="s">
+        <v>89</v>
+      </c>
+      <c r="J404" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10">
+      <c r="A405">
+        <v>4597</v>
+      </c>
+      <c r="B405">
+        <v>52</v>
+      </c>
+      <c r="C405" t="s">
+        <v>11</v>
+      </c>
+      <c r="D405" t="s">
+        <v>12</v>
+      </c>
+      <c r="E405" t="s">
+        <v>69</v>
+      </c>
+      <c r="F405" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G405" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H405" t="s">
+        <v>69</v>
+      </c>
+      <c r="I405" t="s">
+        <v>89</v>
+      </c>
+      <c r="J405" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10">
+      <c r="A406">
+        <v>4598</v>
+      </c>
+      <c r="B406">
+        <v>32</v>
+      </c>
+      <c r="D406" t="s">
+        <v>12</v>
+      </c>
+      <c r="E406" t="s">
+        <v>69</v>
+      </c>
+      <c r="F406" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G406" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H406" t="s">
+        <v>69</v>
+      </c>
+      <c r="I406" t="s">
+        <v>89</v>
+      </c>
+      <c r="J406" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10">
+      <c r="A407">
+        <v>4599</v>
+      </c>
+      <c r="B407">
+        <v>33</v>
+      </c>
+      <c r="C407" t="s">
+        <v>11</v>
+      </c>
+      <c r="D407" t="s">
+        <v>12</v>
+      </c>
+      <c r="E407" t="s">
+        <v>69</v>
+      </c>
+      <c r="F407" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G407" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H407" t="s">
+        <v>69</v>
+      </c>
+      <c r="I407" t="s">
+        <v>89</v>
+      </c>
+      <c r="J407" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10">
+      <c r="A408">
+        <v>4600</v>
+      </c>
+      <c r="B408">
+        <v>55</v>
+      </c>
+      <c r="C408" t="s">
+        <v>11</v>
+      </c>
+      <c r="D408" t="s">
+        <v>12</v>
+      </c>
+      <c r="E408" t="s">
+        <v>69</v>
+      </c>
+      <c r="F408" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G408" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H408" t="s">
+        <v>69</v>
+      </c>
+      <c r="I408" t="s">
+        <v>89</v>
+      </c>
+      <c r="J408" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10">
+      <c r="A409">
+        <v>4601</v>
+      </c>
+      <c r="B409">
+        <v>45</v>
+      </c>
+      <c r="C409" t="s">
+        <v>11</v>
+      </c>
+      <c r="D409" t="s">
+        <v>12</v>
+      </c>
+      <c r="E409" t="s">
+        <v>69</v>
+      </c>
+      <c r="F409" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G409" s="2">
+        <v>44189</v>
+      </c>
+      <c r="H409" t="s">
+        <v>69</v>
+      </c>
+      <c r="I409" t="s">
+        <v>89</v>
+      </c>
+      <c r="J409" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10">
+      <c r="A410">
+        <v>4602</v>
+      </c>
+      <c r="B410">
+        <v>47</v>
+      </c>
+      <c r="C410" t="s">
+        <v>11</v>
+      </c>
+      <c r="D410" t="s">
+        <v>12</v>
+      </c>
+      <c r="E410" t="s">
+        <v>74</v>
+      </c>
+      <c r="F410" s="2">
+        <v>44190</v>
+      </c>
+      <c r="G410" s="2">
+        <v>44190</v>
+      </c>
+      <c r="H410" t="s">
+        <v>74</v>
+      </c>
+      <c r="I410" t="s">
+        <v>170</v>
+      </c>
+      <c r="J410" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/Recent 14Days Alert Data🔥/xlsx/data-gov-week.xlsx
+++ b/Recent 14Days Alert Data🔥/xlsx/data-gov-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="181">
   <si>
     <t>no</t>
   </si>
@@ -508,13 +508,10 @@
     <t>หนองบัวแดง</t>
   </si>
   <si>
-    <t>ทุ่งครุ</t>
+    <t>ทุ่งครุ</t>
   </si>
   <si>
     <t>พระประเเดง</t>
-  </si>
-  <si>
-    <t>ทุ่งครุ</t>
   </si>
   <si>
     <t>อัมพวา</t>
@@ -988,7 +985,7 @@
         <v>77</v>
       </c>
       <c r="J2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1020,7 +1017,7 @@
         <v>78</v>
       </c>
       <c r="J3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1052,7 +1049,7 @@
         <v>79</v>
       </c>
       <c r="J4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1084,7 +1081,7 @@
         <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1116,7 +1113,7 @@
         <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1148,7 +1145,7 @@
         <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1180,7 +1177,7 @@
         <v>82</v>
       </c>
       <c r="J8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1212,7 +1209,7 @@
         <v>81</v>
       </c>
       <c r="J9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1244,7 +1241,7 @@
         <v>81</v>
       </c>
       <c r="J10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1276,7 +1273,7 @@
         <v>80</v>
       </c>
       <c r="J11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1308,7 +1305,7 @@
         <v>80</v>
       </c>
       <c r="J12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1340,7 +1337,7 @@
         <v>81</v>
       </c>
       <c r="J13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1372,7 +1369,7 @@
         <v>81</v>
       </c>
       <c r="J14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1404,7 +1401,7 @@
         <v>81</v>
       </c>
       <c r="J15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1436,7 +1433,7 @@
         <v>81</v>
       </c>
       <c r="J16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1468,7 +1465,7 @@
         <v>81</v>
       </c>
       <c r="J17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1500,7 +1497,7 @@
         <v>81</v>
       </c>
       <c r="J18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1532,7 +1529,7 @@
         <v>81</v>
       </c>
       <c r="J19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1564,7 +1561,7 @@
         <v>81</v>
       </c>
       <c r="J20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1596,7 +1593,7 @@
         <v>83</v>
       </c>
       <c r="J21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1628,7 +1625,7 @@
         <v>84</v>
       </c>
       <c r="J22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1660,7 +1657,7 @@
         <v>84</v>
       </c>
       <c r="J23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1692,7 +1689,7 @@
         <v>84</v>
       </c>
       <c r="J24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1724,7 +1721,7 @@
         <v>84</v>
       </c>
       <c r="J25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1756,7 +1753,7 @@
         <v>84</v>
       </c>
       <c r="J26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1788,7 +1785,7 @@
         <v>85</v>
       </c>
       <c r="J27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1817,7 +1814,7 @@
         <v>74</v>
       </c>
       <c r="J28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1849,7 +1846,7 @@
         <v>77</v>
       </c>
       <c r="J29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1881,7 +1878,7 @@
         <v>86</v>
       </c>
       <c r="J30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1913,7 +1910,7 @@
         <v>77</v>
       </c>
       <c r="J31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1945,7 +1942,7 @@
         <v>77</v>
       </c>
       <c r="J32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1977,7 +1974,7 @@
         <v>87</v>
       </c>
       <c r="J33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2009,7 +2006,7 @@
         <v>78</v>
       </c>
       <c r="J34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2041,7 +2038,7 @@
         <v>86</v>
       </c>
       <c r="J35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2073,7 +2070,7 @@
         <v>87</v>
       </c>
       <c r="J36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2105,7 +2102,7 @@
         <v>81</v>
       </c>
       <c r="J37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2137,7 +2134,7 @@
         <v>78</v>
       </c>
       <c r="J38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2169,7 +2166,7 @@
         <v>88</v>
       </c>
       <c r="J39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2201,7 +2198,7 @@
         <v>81</v>
       </c>
       <c r="J40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2233,7 +2230,7 @@
         <v>77</v>
       </c>
       <c r="J41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2265,7 +2262,7 @@
         <v>89</v>
       </c>
       <c r="J42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2297,7 +2294,7 @@
         <v>90</v>
       </c>
       <c r="J43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2329,7 +2326,7 @@
         <v>81</v>
       </c>
       <c r="J44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2361,7 +2358,7 @@
         <v>77</v>
       </c>
       <c r="J45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2393,7 +2390,7 @@
         <v>82</v>
       </c>
       <c r="J46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2425,7 +2422,7 @@
         <v>84</v>
       </c>
       <c r="J47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2457,7 +2454,7 @@
         <v>84</v>
       </c>
       <c r="J48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2489,7 +2486,7 @@
         <v>84</v>
       </c>
       <c r="J49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2521,7 +2518,7 @@
         <v>78</v>
       </c>
       <c r="J50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2553,7 +2550,7 @@
         <v>87</v>
       </c>
       <c r="J51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2585,7 +2582,7 @@
         <v>77</v>
       </c>
       <c r="J52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2617,7 +2614,7 @@
         <v>91</v>
       </c>
       <c r="J53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2649,7 +2646,7 @@
         <v>81</v>
       </c>
       <c r="J54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2681,7 +2678,7 @@
         <v>90</v>
       </c>
       <c r="J55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2713,7 +2710,7 @@
         <v>92</v>
       </c>
       <c r="J56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2745,7 +2742,7 @@
         <v>93</v>
       </c>
       <c r="J57" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2777,7 +2774,7 @@
         <v>92</v>
       </c>
       <c r="J58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2809,7 +2806,7 @@
         <v>78</v>
       </c>
       <c r="J59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2841,7 +2838,7 @@
         <v>78</v>
       </c>
       <c r="J60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2873,7 +2870,7 @@
         <v>82</v>
       </c>
       <c r="J61" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2905,7 +2902,7 @@
         <v>78</v>
       </c>
       <c r="J62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2937,7 +2934,7 @@
         <v>82</v>
       </c>
       <c r="J63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2969,7 +2966,7 @@
         <v>82</v>
       </c>
       <c r="J64" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3001,7 +2998,7 @@
         <v>82</v>
       </c>
       <c r="J65" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3033,7 +3030,7 @@
         <v>82</v>
       </c>
       <c r="J66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3065,7 +3062,7 @@
         <v>81</v>
       </c>
       <c r="J67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3097,7 +3094,7 @@
         <v>81</v>
       </c>
       <c r="J68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -3129,7 +3126,7 @@
         <v>94</v>
       </c>
       <c r="J69" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -3161,7 +3158,7 @@
         <v>78</v>
       </c>
       <c r="J70" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3193,7 +3190,7 @@
         <v>95</v>
       </c>
       <c r="J71" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -3225,7 +3222,7 @@
         <v>96</v>
       </c>
       <c r="J72" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -3257,7 +3254,7 @@
         <v>84</v>
       </c>
       <c r="J73" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -3289,7 +3286,7 @@
         <v>84</v>
       </c>
       <c r="J74" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -3321,7 +3318,7 @@
         <v>84</v>
       </c>
       <c r="J75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -3353,7 +3350,7 @@
         <v>84</v>
       </c>
       <c r="J76" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3385,7 +3382,7 @@
         <v>93</v>
       </c>
       <c r="J77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3417,7 +3414,7 @@
         <v>78</v>
       </c>
       <c r="J78" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3449,7 +3446,7 @@
         <v>90</v>
       </c>
       <c r="J79" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3481,7 +3478,7 @@
         <v>97</v>
       </c>
       <c r="J80" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -3513,7 +3510,7 @@
         <v>98</v>
       </c>
       <c r="J81" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -3545,7 +3542,7 @@
         <v>81</v>
       </c>
       <c r="J82" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3577,7 +3574,7 @@
         <v>81</v>
       </c>
       <c r="J83" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3609,7 +3606,7 @@
         <v>81</v>
       </c>
       <c r="J84" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3641,7 +3638,7 @@
         <v>81</v>
       </c>
       <c r="J85" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3673,7 +3670,7 @@
         <v>79</v>
       </c>
       <c r="J86" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3705,7 +3702,7 @@
         <v>84</v>
       </c>
       <c r="J87" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3737,7 +3734,7 @@
         <v>99</v>
       </c>
       <c r="J88" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3769,7 +3766,7 @@
         <v>93</v>
       </c>
       <c r="J89" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3801,7 +3798,7 @@
         <v>77</v>
       </c>
       <c r="J90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3833,7 +3830,7 @@
         <v>96</v>
       </c>
       <c r="J91" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3865,7 +3862,7 @@
         <v>81</v>
       </c>
       <c r="J92" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -3897,7 +3894,7 @@
         <v>93</v>
       </c>
       <c r="J93" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3929,7 +3926,7 @@
         <v>77</v>
       </c>
       <c r="J94" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -3961,7 +3958,7 @@
         <v>93</v>
       </c>
       <c r="J95" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3993,7 +3990,7 @@
         <v>96</v>
       </c>
       <c r="J96" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -4025,7 +4022,7 @@
         <v>77</v>
       </c>
       <c r="J97" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -4057,7 +4054,7 @@
         <v>77</v>
       </c>
       <c r="J98" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -4089,7 +4086,7 @@
         <v>80</v>
       </c>
       <c r="J99" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -4121,7 +4118,7 @@
         <v>81</v>
       </c>
       <c r="J100" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -4153,7 +4150,7 @@
         <v>96</v>
       </c>
       <c r="J101" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -4185,7 +4182,7 @@
         <v>96</v>
       </c>
       <c r="J102" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -4217,7 +4214,7 @@
         <v>81</v>
       </c>
       <c r="J103" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -4249,7 +4246,7 @@
         <v>81</v>
       </c>
       <c r="J104" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -4281,7 +4278,7 @@
         <v>100</v>
       </c>
       <c r="J105" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -4313,7 +4310,7 @@
         <v>99</v>
       </c>
       <c r="J106" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -4345,7 +4342,7 @@
         <v>100</v>
       </c>
       <c r="J107" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -4377,7 +4374,7 @@
         <v>79</v>
       </c>
       <c r="J108" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -4409,7 +4406,7 @@
         <v>90</v>
       </c>
       <c r="J109" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -4441,7 +4438,7 @@
         <v>84</v>
       </c>
       <c r="J110" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -4473,7 +4470,7 @@
         <v>84</v>
       </c>
       <c r="J111" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -4505,7 +4502,7 @@
         <v>84</v>
       </c>
       <c r="J112" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -4537,7 +4534,7 @@
         <v>84</v>
       </c>
       <c r="J113" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -4569,7 +4566,7 @@
         <v>84</v>
       </c>
       <c r="J114" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -4601,7 +4598,7 @@
         <v>84</v>
       </c>
       <c r="J115" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -4633,7 +4630,7 @@
         <v>84</v>
       </c>
       <c r="J116" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -4665,7 +4662,7 @@
         <v>84</v>
       </c>
       <c r="J117" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -4697,7 +4694,7 @@
         <v>84</v>
       </c>
       <c r="J118" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -4729,7 +4726,7 @@
         <v>84</v>
       </c>
       <c r="J119" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -4761,7 +4758,7 @@
         <v>84</v>
       </c>
       <c r="J120" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -4793,7 +4790,7 @@
         <v>84</v>
       </c>
       <c r="J121" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -4825,7 +4822,7 @@
         <v>84</v>
       </c>
       <c r="J122" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -4857,7 +4854,7 @@
         <v>84</v>
       </c>
       <c r="J123" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -4889,7 +4886,7 @@
         <v>84</v>
       </c>
       <c r="J124" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -4921,7 +4918,7 @@
         <v>84</v>
       </c>
       <c r="J125" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -4953,7 +4950,7 @@
         <v>84</v>
       </c>
       <c r="J126" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -4985,7 +4982,7 @@
         <v>84</v>
       </c>
       <c r="J127" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -5017,7 +5014,7 @@
         <v>84</v>
       </c>
       <c r="J128" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -5049,7 +5046,7 @@
         <v>81</v>
       </c>
       <c r="J129" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -5081,7 +5078,7 @@
         <v>81</v>
       </c>
       <c r="J130" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -5113,7 +5110,7 @@
         <v>84</v>
       </c>
       <c r="J131" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -5145,7 +5142,7 @@
         <v>84</v>
       </c>
       <c r="J132" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -5177,7 +5174,7 @@
         <v>88</v>
       </c>
       <c r="J133" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -5209,7 +5206,7 @@
         <v>101</v>
       </c>
       <c r="J134" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -5241,7 +5238,7 @@
         <v>102</v>
       </c>
       <c r="J135" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -5273,7 +5270,7 @@
         <v>77</v>
       </c>
       <c r="J136" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -5305,7 +5302,7 @@
         <v>86</v>
       </c>
       <c r="J137" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -5337,7 +5334,7 @@
         <v>81</v>
       </c>
       <c r="J138" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -5369,7 +5366,7 @@
         <v>81</v>
       </c>
       <c r="J139" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -5401,7 +5398,7 @@
         <v>80</v>
       </c>
       <c r="J140" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -5433,7 +5430,7 @@
         <v>80</v>
       </c>
       <c r="J141" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -5465,7 +5462,7 @@
         <v>81</v>
       </c>
       <c r="J142" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -5497,7 +5494,7 @@
         <v>81</v>
       </c>
       <c r="J143" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -5529,7 +5526,7 @@
         <v>81</v>
       </c>
       <c r="J144" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -5561,7 +5558,7 @@
         <v>81</v>
       </c>
       <c r="J145" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -5593,7 +5590,7 @@
         <v>81</v>
       </c>
       <c r="J146" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -5625,7 +5622,7 @@
         <v>81</v>
       </c>
       <c r="J147" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -5657,7 +5654,7 @@
         <v>81</v>
       </c>
       <c r="J148" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -5689,7 +5686,7 @@
         <v>81</v>
       </c>
       <c r="J149" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -5721,7 +5718,7 @@
         <v>81</v>
       </c>
       <c r="J150" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -5753,7 +5750,7 @@
         <v>81</v>
       </c>
       <c r="J151" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -5785,7 +5782,7 @@
         <v>81</v>
       </c>
       <c r="J152" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -5817,7 +5814,7 @@
         <v>81</v>
       </c>
       <c r="J153" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -5849,7 +5846,7 @@
         <v>81</v>
       </c>
       <c r="J154" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -5881,7 +5878,7 @@
         <v>81</v>
       </c>
       <c r="J155" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -5913,7 +5910,7 @@
         <v>81</v>
       </c>
       <c r="J156" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -5945,7 +5942,7 @@
         <v>81</v>
       </c>
       <c r="J157" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -5977,7 +5974,7 @@
         <v>81</v>
       </c>
       <c r="J158" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -6009,7 +6006,7 @@
         <v>81</v>
       </c>
       <c r="J159" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -6041,7 +6038,7 @@
         <v>81</v>
       </c>
       <c r="J160" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -6073,7 +6070,7 @@
         <v>81</v>
       </c>
       <c r="J161" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -6105,7 +6102,7 @@
         <v>81</v>
       </c>
       <c r="J162" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -6137,7 +6134,7 @@
         <v>81</v>
       </c>
       <c r="J163" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -6169,7 +6166,7 @@
         <v>81</v>
       </c>
       <c r="J164" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -6201,7 +6198,7 @@
         <v>81</v>
       </c>
       <c r="J165" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -6233,7 +6230,7 @@
         <v>81</v>
       </c>
       <c r="J166" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -6265,7 +6262,7 @@
         <v>81</v>
       </c>
       <c r="J167" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -6297,7 +6294,7 @@
         <v>81</v>
       </c>
       <c r="J168" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -6329,7 +6326,7 @@
         <v>81</v>
       </c>
       <c r="J169" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -6361,7 +6358,7 @@
         <v>81</v>
       </c>
       <c r="J170" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -6393,7 +6390,7 @@
         <v>81</v>
       </c>
       <c r="J171" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -6425,7 +6422,7 @@
         <v>84</v>
       </c>
       <c r="J172" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -6457,7 +6454,7 @@
         <v>84</v>
       </c>
       <c r="J173" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -6489,7 +6486,7 @@
         <v>84</v>
       </c>
       <c r="J174" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -6521,7 +6518,7 @@
         <v>84</v>
       </c>
       <c r="J175" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -6553,7 +6550,7 @@
         <v>84</v>
       </c>
       <c r="J176" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -6585,7 +6582,7 @@
         <v>84</v>
       </c>
       <c r="J177" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -6617,7 +6614,7 @@
         <v>84</v>
       </c>
       <c r="J178" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -6649,7 +6646,7 @@
         <v>84</v>
       </c>
       <c r="J179" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -6681,7 +6678,7 @@
         <v>84</v>
       </c>
       <c r="J180" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -6713,7 +6710,7 @@
         <v>84</v>
       </c>
       <c r="J181" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -6745,7 +6742,7 @@
         <v>100</v>
       </c>
       <c r="J182" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -6777,7 +6774,7 @@
         <v>95</v>
       </c>
       <c r="J183" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -6809,7 +6806,7 @@
         <v>103</v>
       </c>
       <c r="J184" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="185" spans="1:10">
@@ -6841,7 +6838,7 @@
         <v>104</v>
       </c>
       <c r="J185" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -6873,7 +6870,7 @@
         <v>105</v>
       </c>
       <c r="J186" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -6905,7 +6902,7 @@
         <v>84</v>
       </c>
       <c r="J187" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -6937,7 +6934,7 @@
         <v>84</v>
       </c>
       <c r="J188" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="189" spans="1:10">
@@ -6969,7 +6966,7 @@
         <v>78</v>
       </c>
       <c r="J189" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -7001,7 +6998,7 @@
         <v>84</v>
       </c>
       <c r="J190" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="191" spans="1:10">
@@ -7033,7 +7030,7 @@
         <v>84</v>
       </c>
       <c r="J191" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -7065,7 +7062,7 @@
         <v>88</v>
       </c>
       <c r="J192" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -7097,7 +7094,7 @@
         <v>78</v>
       </c>
       <c r="J193" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -7129,7 +7126,7 @@
         <v>84</v>
       </c>
       <c r="J194" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -7161,7 +7158,7 @@
         <v>81</v>
       </c>
       <c r="J195" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -7193,7 +7190,7 @@
         <v>84</v>
       </c>
       <c r="J196" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -7225,7 +7222,7 @@
         <v>106</v>
       </c>
       <c r="J197" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -7257,7 +7254,7 @@
         <v>81</v>
       </c>
       <c r="J198" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -7289,7 +7286,7 @@
         <v>84</v>
       </c>
       <c r="J199" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -7321,7 +7318,7 @@
         <v>84</v>
       </c>
       <c r="J200" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -7353,7 +7350,7 @@
         <v>84</v>
       </c>
       <c r="J201" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -7385,7 +7382,7 @@
         <v>107</v>
       </c>
       <c r="J202" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -7417,7 +7414,7 @@
         <v>108</v>
       </c>
       <c r="J203" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -7449,7 +7446,7 @@
         <v>84</v>
       </c>
       <c r="J204" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -7481,7 +7478,7 @@
         <v>84</v>
       </c>
       <c r="J205" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="206" spans="1:10">
@@ -7513,7 +7510,7 @@
         <v>84</v>
       </c>
       <c r="J206" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -7545,7 +7542,7 @@
         <v>109</v>
       </c>
       <c r="J207" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -7577,7 +7574,7 @@
         <v>110</v>
       </c>
       <c r="J208" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="209" spans="1:10">
@@ -7609,7 +7606,7 @@
         <v>110</v>
       </c>
       <c r="J209" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="210" spans="1:10">
@@ -7641,7 +7638,7 @@
         <v>111</v>
       </c>
       <c r="J210" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -7673,7 +7670,7 @@
         <v>112</v>
       </c>
       <c r="J211" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="212" spans="1:10">
@@ -7705,7 +7702,7 @@
         <v>113</v>
       </c>
       <c r="J212" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="213" spans="1:10">
@@ -7737,7 +7734,7 @@
         <v>78</v>
       </c>
       <c r="J213" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -7769,7 +7766,7 @@
         <v>81</v>
       </c>
       <c r="J214" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="215" spans="1:10">
@@ -7801,7 +7798,7 @@
         <v>81</v>
       </c>
       <c r="J215" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -7833,7 +7830,7 @@
         <v>89</v>
       </c>
       <c r="J216" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -7865,7 +7862,7 @@
         <v>81</v>
       </c>
       <c r="J217" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="218" spans="1:10">
@@ -7897,7 +7894,7 @@
         <v>114</v>
       </c>
       <c r="J218" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="219" spans="1:10">
@@ -7929,7 +7926,7 @@
         <v>81</v>
       </c>
       <c r="J219" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="220" spans="1:10">
@@ -7961,7 +7958,7 @@
         <v>81</v>
       </c>
       <c r="J220" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="221" spans="1:10">
@@ -7993,7 +7990,7 @@
         <v>81</v>
       </c>
       <c r="J221" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="222" spans="1:10">
@@ -8025,7 +8022,7 @@
         <v>81</v>
       </c>
       <c r="J222" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="223" spans="1:10">
@@ -8057,7 +8054,7 @@
         <v>81</v>
       </c>
       <c r="J223" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="224" spans="1:10">
@@ -8089,7 +8086,7 @@
         <v>115</v>
       </c>
       <c r="J224" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="225" spans="1:10">
@@ -8121,7 +8118,7 @@
         <v>101</v>
       </c>
       <c r="J225" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="226" spans="1:10">
@@ -8153,7 +8150,7 @@
         <v>86</v>
       </c>
       <c r="J226" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -8185,7 +8182,7 @@
         <v>109</v>
       </c>
       <c r="J227" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="228" spans="1:10">
@@ -8214,7 +8211,7 @@
         <v>52</v>
       </c>
       <c r="J228" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="229" spans="1:10">
@@ -8246,7 +8243,7 @@
         <v>116</v>
       </c>
       <c r="J229" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="230" spans="1:10">
@@ -8278,7 +8275,7 @@
         <v>86</v>
       </c>
       <c r="J230" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="231" spans="1:10">
@@ -8310,7 +8307,7 @@
         <v>88</v>
       </c>
       <c r="J231" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="232" spans="1:10">
@@ -8342,7 +8339,7 @@
         <v>117</v>
       </c>
       <c r="J232" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="233" spans="1:10">
@@ -8374,7 +8371,7 @@
         <v>90</v>
       </c>
       <c r="J233" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="234" spans="1:10">
@@ -8406,7 +8403,7 @@
         <v>84</v>
       </c>
       <c r="J234" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="235" spans="1:10">
@@ -8438,7 +8435,7 @@
         <v>100</v>
       </c>
       <c r="J235" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="236" spans="1:10">
@@ -8470,7 +8467,7 @@
         <v>81</v>
       </c>
       <c r="J236" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="237" spans="1:10">
@@ -8502,7 +8499,7 @@
         <v>81</v>
       </c>
       <c r="J237" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="238" spans="1:10">
@@ -8534,7 +8531,7 @@
         <v>111</v>
       </c>
       <c r="J238" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="239" spans="1:10">
@@ -8566,7 +8563,7 @@
         <v>111</v>
       </c>
       <c r="J239" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="240" spans="1:10">
@@ -8598,7 +8595,7 @@
         <v>111</v>
       </c>
       <c r="J240" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="241" spans="1:10">
@@ -8630,7 +8627,7 @@
         <v>104</v>
       </c>
       <c r="J241" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="242" spans="1:10">
@@ -8662,7 +8659,7 @@
         <v>84</v>
       </c>
       <c r="J242" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="243" spans="1:10">
@@ -8694,7 +8691,7 @@
         <v>118</v>
       </c>
       <c r="J243" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="244" spans="1:10">
@@ -8726,7 +8723,7 @@
         <v>78</v>
       </c>
       <c r="J244" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="245" spans="1:10">
@@ -8758,7 +8755,7 @@
         <v>84</v>
       </c>
       <c r="J245" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="246" spans="1:10">
@@ -8790,7 +8787,7 @@
         <v>119</v>
       </c>
       <c r="J246" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="247" spans="1:10">
@@ -8822,7 +8819,7 @@
         <v>84</v>
       </c>
       <c r="J247" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="248" spans="1:10">
@@ -8854,7 +8851,7 @@
         <v>120</v>
       </c>
       <c r="J248" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="249" spans="1:10">
@@ -8886,7 +8883,7 @@
         <v>121</v>
       </c>
       <c r="J249" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="250" spans="1:10">
@@ -8918,7 +8915,7 @@
         <v>122</v>
       </c>
       <c r="J250" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="251" spans="1:10">
@@ -8950,7 +8947,7 @@
         <v>122</v>
       </c>
       <c r="J251" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="252" spans="1:10">
@@ -8982,7 +8979,7 @@
         <v>81</v>
       </c>
       <c r="J252" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="253" spans="1:10">
@@ -9014,7 +9011,7 @@
         <v>78</v>
       </c>
       <c r="J253" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="254" spans="1:10">
@@ -9046,7 +9043,7 @@
         <v>123</v>
       </c>
       <c r="J254" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="255" spans="1:10">
@@ -9078,7 +9075,7 @@
         <v>124</v>
       </c>
       <c r="J255" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="256" spans="1:10">
@@ -9110,7 +9107,7 @@
         <v>125</v>
       </c>
       <c r="J256" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="257" spans="1:10">
@@ -9142,7 +9139,7 @@
         <v>84</v>
       </c>
       <c r="J257" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="258" spans="1:10">
@@ -9174,7 +9171,7 @@
         <v>84</v>
       </c>
       <c r="J258" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="259" spans="1:10">
@@ -9206,7 +9203,7 @@
         <v>126</v>
       </c>
       <c r="J259" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="260" spans="1:10">
@@ -9238,7 +9235,7 @@
         <v>126</v>
       </c>
       <c r="J260" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="261" spans="1:10">
@@ -9270,7 +9267,7 @@
         <v>126</v>
       </c>
       <c r="J261" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="262" spans="1:10">
@@ -9302,7 +9299,7 @@
         <v>80</v>
       </c>
       <c r="J262" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="263" spans="1:10">
@@ -9334,7 +9331,7 @@
         <v>109</v>
       </c>
       <c r="J263" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="264" spans="1:10">
@@ -9366,7 +9363,7 @@
         <v>84</v>
       </c>
       <c r="J264" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="265" spans="1:10">
@@ -9398,7 +9395,7 @@
         <v>81</v>
       </c>
       <c r="J265" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="266" spans="1:10">
@@ -9430,7 +9427,7 @@
         <v>127</v>
       </c>
       <c r="J266" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="267" spans="1:10">
@@ -9462,7 +9459,7 @@
         <v>128</v>
       </c>
       <c r="J267" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="268" spans="1:10">
@@ -9494,7 +9491,7 @@
         <v>129</v>
       </c>
       <c r="J268" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="269" spans="1:10">
@@ -9526,7 +9523,7 @@
         <v>130</v>
       </c>
       <c r="J269" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="270" spans="1:10">
@@ -9558,7 +9555,7 @@
         <v>88</v>
       </c>
       <c r="J270" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="271" spans="1:10">
@@ -9590,7 +9587,7 @@
         <v>115</v>
       </c>
       <c r="J271" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="272" spans="1:10">
@@ -9622,7 +9619,7 @@
         <v>131</v>
       </c>
       <c r="J272" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="273" spans="1:10">
@@ -9654,7 +9651,7 @@
         <v>131</v>
       </c>
       <c r="J273" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="274" spans="1:10">
@@ -9686,7 +9683,7 @@
         <v>132</v>
       </c>
       <c r="J274" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="275" spans="1:10">
@@ -9718,7 +9715,7 @@
         <v>84</v>
       </c>
       <c r="J275" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="276" spans="1:10">
@@ -9750,7 +9747,7 @@
         <v>128</v>
       </c>
       <c r="J276" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="277" spans="1:10">
@@ -9782,7 +9779,7 @@
         <v>108</v>
       </c>
       <c r="J277" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="278" spans="1:10">
@@ -9814,7 +9811,7 @@
         <v>108</v>
       </c>
       <c r="J278" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="279" spans="1:10">
@@ -9846,7 +9843,7 @@
         <v>84</v>
       </c>
       <c r="J279" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="280" spans="1:10">
@@ -9875,7 +9872,7 @@
         <v>84</v>
       </c>
       <c r="J280" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="281" spans="1:10">
@@ -9907,7 +9904,7 @@
         <v>84</v>
       </c>
       <c r="J281" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="282" spans="1:10">
@@ -9939,7 +9936,7 @@
         <v>84</v>
       </c>
       <c r="J282" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="283" spans="1:10">
@@ -9971,7 +9968,7 @@
         <v>133</v>
       </c>
       <c r="J283" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="284" spans="1:10">
@@ -10003,7 +10000,7 @@
         <v>84</v>
       </c>
       <c r="J284" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="285" spans="1:10">
@@ -10032,7 +10029,7 @@
         <v>44</v>
       </c>
       <c r="J285" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="286" spans="1:10">
@@ -10064,7 +10061,7 @@
         <v>84</v>
       </c>
       <c r="J286" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="287" spans="1:10">
@@ -10096,7 +10093,7 @@
         <v>84</v>
       </c>
       <c r="J287" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="288" spans="1:10">
@@ -10128,7 +10125,7 @@
         <v>134</v>
       </c>
       <c r="J288" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="289" spans="1:10">
@@ -10160,7 +10157,7 @@
         <v>135</v>
       </c>
       <c r="J289" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="290" spans="1:10">
@@ -10192,7 +10189,7 @@
         <v>136</v>
       </c>
       <c r="J290" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="291" spans="1:10">
@@ -10224,7 +10221,7 @@
         <v>128</v>
       </c>
       <c r="J291" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="292" spans="1:10">
@@ -10256,7 +10253,7 @@
         <v>84</v>
       </c>
       <c r="J292" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="293" spans="1:10">
@@ -10288,7 +10285,7 @@
         <v>137</v>
       </c>
       <c r="J293" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="294" spans="1:10">
@@ -10320,7 +10317,7 @@
         <v>138</v>
       </c>
       <c r="J294" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="295" spans="1:10">
@@ -10352,7 +10349,7 @@
         <v>137</v>
       </c>
       <c r="J295" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="296" spans="1:10">
@@ -10384,7 +10381,7 @@
         <v>137</v>
       </c>
       <c r="J296" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="297" spans="1:10">
@@ -10416,7 +10413,7 @@
         <v>84</v>
       </c>
       <c r="J297" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="298" spans="1:10">
@@ -10448,7 +10445,7 @@
         <v>110</v>
       </c>
       <c r="J298" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="299" spans="1:10">
@@ -10480,7 +10477,7 @@
         <v>84</v>
       </c>
       <c r="J299" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="300" spans="1:10">
@@ -10512,7 +10509,7 @@
         <v>84</v>
       </c>
       <c r="J300" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="301" spans="1:10">
@@ -10544,7 +10541,7 @@
         <v>139</v>
       </c>
       <c r="J301" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="302" spans="1:10">
@@ -10576,7 +10573,7 @@
         <v>84</v>
       </c>
       <c r="J302" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="303" spans="1:10">
@@ -10608,7 +10605,7 @@
         <v>128</v>
       </c>
       <c r="J303" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="304" spans="1:10">
@@ -10640,7 +10637,7 @@
         <v>84</v>
       </c>
       <c r="J304" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="305" spans="1:10">
@@ -10672,7 +10669,7 @@
         <v>84</v>
       </c>
       <c r="J305" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="306" spans="1:10">
@@ -10704,7 +10701,7 @@
         <v>140</v>
       </c>
       <c r="J306" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="307" spans="1:10">
@@ -10736,7 +10733,7 @@
         <v>128</v>
       </c>
       <c r="J307" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="308" spans="1:10">
@@ -10768,7 +10765,7 @@
         <v>141</v>
       </c>
       <c r="J308" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="309" spans="1:10">
@@ -10800,7 +10797,7 @@
         <v>90</v>
       </c>
       <c r="J309" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="310" spans="1:10">
@@ -10832,7 +10829,7 @@
         <v>85</v>
       </c>
       <c r="J310" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="311" spans="1:10">
@@ -10864,7 +10861,7 @@
         <v>84</v>
       </c>
       <c r="J311" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="312" spans="1:10">
@@ -10896,7 +10893,7 @@
         <v>81</v>
       </c>
       <c r="J312" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="313" spans="1:10">
@@ -10928,7 +10925,7 @@
         <v>84</v>
       </c>
       <c r="J313" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="314" spans="1:10">
@@ -10960,7 +10957,7 @@
         <v>142</v>
       </c>
       <c r="J314" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="315" spans="1:10">
@@ -10989,7 +10986,7 @@
         <v>75</v>
       </c>
       <c r="J315" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="316" spans="1:10">
@@ -11021,7 +11018,7 @@
         <v>143</v>
       </c>
       <c r="J316" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="317" spans="1:10">
@@ -11053,7 +11050,7 @@
         <v>127</v>
       </c>
       <c r="J317" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="318" spans="1:10">
@@ -11085,7 +11082,7 @@
         <v>127</v>
       </c>
       <c r="J318" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="319" spans="1:10">
@@ -11117,7 +11114,7 @@
         <v>144</v>
       </c>
       <c r="J319" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="320" spans="1:10">
@@ -11149,7 +11146,7 @@
         <v>123</v>
       </c>
       <c r="J320" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="321" spans="1:10">
@@ -11178,7 +11175,7 @@
         <v>74</v>
       </c>
       <c r="J321" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="322" spans="1:10">
@@ -11210,7 +11207,7 @@
         <v>108</v>
       </c>
       <c r="J322" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="323" spans="1:10">
@@ -11242,7 +11239,7 @@
         <v>143</v>
       </c>
       <c r="J323" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="324" spans="1:10">
@@ -11274,7 +11271,7 @@
         <v>84</v>
       </c>
       <c r="J324" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="325" spans="1:10">
@@ -11306,7 +11303,7 @@
         <v>84</v>
       </c>
       <c r="J325" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="326" spans="1:10">
@@ -11338,7 +11335,7 @@
         <v>100</v>
       </c>
       <c r="J326" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="327" spans="1:10">
@@ -11370,7 +11367,7 @@
         <v>100</v>
       </c>
       <c r="J327" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="328" spans="1:10">
@@ -11402,7 +11399,7 @@
         <v>84</v>
       </c>
       <c r="J328" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="329" spans="1:10">
@@ -11434,7 +11431,7 @@
         <v>145</v>
       </c>
       <c r="J329" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="330" spans="1:10">
@@ -11466,7 +11463,7 @@
         <v>146</v>
       </c>
       <c r="J330" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="331" spans="1:10">
@@ -11498,7 +11495,7 @@
         <v>85</v>
       </c>
       <c r="J331" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="332" spans="1:10">
@@ -11530,7 +11527,7 @@
         <v>84</v>
       </c>
       <c r="J332" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="333" spans="1:10">
@@ -11562,7 +11559,7 @@
         <v>147</v>
       </c>
       <c r="J333" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="334" spans="1:10">
@@ -11594,7 +11591,7 @@
         <v>148</v>
       </c>
       <c r="J334" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="335" spans="1:10">
@@ -11626,7 +11623,7 @@
         <v>100</v>
       </c>
       <c r="J335" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="336" spans="1:10">
@@ -11658,7 +11655,7 @@
         <v>84</v>
       </c>
       <c r="J336" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="337" spans="1:10">
@@ -11690,7 +11687,7 @@
         <v>115</v>
       </c>
       <c r="J337" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="338" spans="1:10">
@@ -11722,7 +11719,7 @@
         <v>84</v>
       </c>
       <c r="J338" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="339" spans="1:10">
@@ -11754,7 +11751,7 @@
         <v>84</v>
       </c>
       <c r="J339" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="340" spans="1:10">
@@ -11786,7 +11783,7 @@
         <v>84</v>
       </c>
       <c r="J340" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="341" spans="1:10">
@@ -11818,7 +11815,7 @@
         <v>149</v>
       </c>
       <c r="J341" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="342" spans="1:10">
@@ -11850,7 +11847,7 @@
         <v>84</v>
       </c>
       <c r="J342" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="343" spans="1:10">
@@ -11882,7 +11879,7 @@
         <v>150</v>
       </c>
       <c r="J343" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="344" spans="1:10">
@@ -11914,7 +11911,7 @@
         <v>84</v>
       </c>
       <c r="J344" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="345" spans="1:10">
@@ -11946,7 +11943,7 @@
         <v>151</v>
       </c>
       <c r="J345" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="346" spans="1:10">
@@ -11978,7 +11975,7 @@
         <v>152</v>
       </c>
       <c r="J346" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="347" spans="1:10">
@@ -12010,7 +12007,7 @@
         <v>153</v>
       </c>
       <c r="J347" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="348" spans="1:10">
@@ -12042,7 +12039,7 @@
         <v>154</v>
       </c>
       <c r="J348" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="349" spans="1:10">
@@ -12074,7 +12071,7 @@
         <v>154</v>
       </c>
       <c r="J349" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="350" spans="1:10">
@@ -12106,7 +12103,7 @@
         <v>155</v>
       </c>
       <c r="J350" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="351" spans="1:10">
@@ -12138,7 +12135,7 @@
         <v>84</v>
       </c>
       <c r="J351" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="352" spans="1:10">
@@ -12170,7 +12167,7 @@
         <v>156</v>
       </c>
       <c r="J352" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="353" spans="1:10">
@@ -12202,7 +12199,7 @@
         <v>157</v>
       </c>
       <c r="J353" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="354" spans="1:10">
@@ -12234,7 +12231,7 @@
         <v>84</v>
       </c>
       <c r="J354" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="355" spans="1:10">
@@ -12266,7 +12263,7 @@
         <v>158</v>
       </c>
       <c r="J355" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="356" spans="1:10">
@@ -12298,7 +12295,7 @@
         <v>159</v>
       </c>
       <c r="J356" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="357" spans="1:10">
@@ -12330,7 +12327,7 @@
         <v>160</v>
       </c>
       <c r="J357" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="358" spans="1:10">
@@ -12362,7 +12359,7 @@
         <v>99</v>
       </c>
       <c r="J358" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="359" spans="1:10">
@@ -12394,7 +12391,7 @@
         <v>84</v>
       </c>
       <c r="J359" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="360" spans="1:10">
@@ -12426,7 +12423,7 @@
         <v>161</v>
       </c>
       <c r="J360" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="361" spans="1:10">
@@ -12458,7 +12455,7 @@
         <v>162</v>
       </c>
       <c r="J361" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="362" spans="1:10">
@@ -12490,7 +12487,7 @@
         <v>84</v>
       </c>
       <c r="J362" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="363" spans="1:10">
@@ -12522,7 +12519,7 @@
         <v>84</v>
       </c>
       <c r="J363" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="364" spans="1:10">
@@ -12554,7 +12551,7 @@
         <v>88</v>
       </c>
       <c r="J364" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="365" spans="1:10">
@@ -12586,7 +12583,7 @@
         <v>163</v>
       </c>
       <c r="J365" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="366" spans="1:10">
@@ -12618,7 +12615,7 @@
         <v>150</v>
       </c>
       <c r="J366" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="367" spans="1:10">
@@ -12650,7 +12647,7 @@
         <v>81</v>
       </c>
       <c r="J367" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="368" spans="1:10">
@@ -12682,7 +12679,7 @@
         <v>84</v>
       </c>
       <c r="J368" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="369" spans="1:10">
@@ -12714,7 +12711,7 @@
         <v>79</v>
       </c>
       <c r="J369" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="370" spans="1:10">
@@ -12746,7 +12743,7 @@
         <v>78</v>
       </c>
       <c r="J370" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="371" spans="1:10">
@@ -12778,7 +12775,7 @@
         <v>115</v>
       </c>
       <c r="J371" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="372" spans="1:10">
@@ -12810,7 +12807,7 @@
         <v>116</v>
       </c>
       <c r="J372" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="373" spans="1:10">
@@ -12842,7 +12839,7 @@
         <v>84</v>
       </c>
       <c r="J373" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="374" spans="1:10">
@@ -12874,7 +12871,7 @@
         <v>164</v>
       </c>
       <c r="J374" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="375" spans="1:10">
@@ -12906,7 +12903,7 @@
         <v>164</v>
       </c>
       <c r="J375" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="376" spans="1:10">
@@ -12935,10 +12932,10 @@
         <v>42</v>
       </c>
       <c r="I376" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="J376" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="377" spans="1:10">
@@ -12970,7 +12967,7 @@
         <v>121</v>
       </c>
       <c r="J377" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="378" spans="1:10">
@@ -13002,7 +12999,7 @@
         <v>81</v>
       </c>
       <c r="J378" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="379" spans="1:10">
@@ -13034,7 +13031,7 @@
         <v>165</v>
       </c>
       <c r="J379" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="380" spans="1:10">
@@ -13063,10 +13060,10 @@
         <v>74</v>
       </c>
       <c r="I380" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J380" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="381" spans="1:10">
@@ -13098,7 +13095,7 @@
         <v>81</v>
       </c>
       <c r="J381" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="382" spans="1:10">
@@ -13130,7 +13127,7 @@
         <v>126</v>
       </c>
       <c r="J382" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="383" spans="1:10">
@@ -13162,7 +13159,7 @@
         <v>84</v>
       </c>
       <c r="J383" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="384" spans="1:10">
@@ -13191,10 +13188,10 @@
         <v>68</v>
       </c>
       <c r="I384" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J384" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="385" spans="1:10">
@@ -13226,7 +13223,7 @@
         <v>84</v>
       </c>
       <c r="J385" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="386" spans="1:10">
@@ -13255,7 +13252,7 @@
         <v>84</v>
       </c>
       <c r="J386" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="387" spans="1:10">
@@ -13287,7 +13284,7 @@
         <v>84</v>
       </c>
       <c r="J387" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="388" spans="1:10">
@@ -13316,7 +13313,7 @@
         <v>84</v>
       </c>
       <c r="J388" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="389" spans="1:10">
@@ -13348,7 +13345,7 @@
         <v>84</v>
       </c>
       <c r="J389" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="390" spans="1:10">
@@ -13380,7 +13377,7 @@
         <v>84</v>
       </c>
       <c r="J390" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="391" spans="1:10">
@@ -13412,7 +13409,7 @@
         <v>84</v>
       </c>
       <c r="J391" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="392" spans="1:10">
@@ -13441,10 +13438,10 @@
         <v>73</v>
       </c>
       <c r="I392" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J392" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
